--- a/Project1/TruthTable8Bits.xlsx
+++ b/Project1/TruthTable8Bits.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -383,7 +386,7 @@
   <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,10 +458,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -479,22 +482,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="0">((B3/256) + (C3/128) + (D3/64) + (E3/32) + (F3/16) + (G3/8) + (H3/4) + (I3/2))</f>
-        <v>1.65</v>
+        <f>((B3/256) + (C3/128) + (D3/64) + (E3/32) + (F3/16) + (G3/8) + (H3/4) + (I3/2))</f>
+        <v>1.2890624999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -509,25 +512,25 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0.82499999999999996</v>
+        <f>((B4/256) + (C4/128) + (D4/64) + (E4/32) + (F4/16) + (G4/8) + (H4/4) + (I4/2))</f>
+        <v>2.5781249999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -542,19 +545,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>2.4749999999999996</v>
+        <f>((B5/256) + (C5/128) + (D5/64) + (E5/32) + (F5/16) + (G5/8) + (H5/4) + (I5/2))</f>
+        <v>3.8671874999999994E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -563,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -572,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -581,22 +584,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0.41249999999999998</v>
+        <f>((B6/256) + (C6/128) + (D6/64) + (E6/32) + (F6/16) + (G6/8) + (H6/4) + (I6/2))</f>
+        <v>5.1562499999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -605,31 +608,31 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>2.0625</v>
+        <f>((B7/256) + (C7/128) + (D7/64) + (E7/32) + (F7/16) + (G7/8) + (H7/4) + (I7/2))</f>
+        <v>6.4453125E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -638,31 +641,31 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>1.2374999999999998</v>
+        <f>((B8/256) + (C8/128) + (D8/64) + (E8/32) + (F8/16) + (G8/8) + (H8/4) + (I8/2))</f>
+        <v>7.7343749999999989E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -671,22 +674,22 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
-        <v>2.8874999999999997</v>
+        <f>((B9/256) + (C9/128) + (D9/64) + (E9/32) + (F9/16) + (G9/8) + (H9/4) + (I9/2))</f>
+        <v>9.0234374999999992E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -698,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F10">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -713,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0.20624999999999999</v>
+        <f>((B10/256) + (C10/128) + (D10/64) + (E10/32) + (F10/16) + (G10/8) + (H10/4) + (I10/2))</f>
+        <v>0.10312499999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -731,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F11">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -743,82 +746,82 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
-        <v>1.85625</v>
+        <f>((B11/256) + (C11/128) + (D11/64) + (E11/32) + (F11/16) + (G11/8) + (H11/4) + (I11/2))</f>
+        <v>0.116015625</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F12">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
-        <v>1.03125</v>
+        <f>((B12/256) + (C12/128) + (D12/64) + (E12/32) + (F12/16) + (G12/8) + (H12/4) + (I12/2))</f>
+        <v>0.12890625</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F13">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
-        <v>2.6812499999999999</v>
+        <f>((B13/256) + (C13/128) + (D13/64) + (E13/32) + (F13/16) + (G13/8) + (H13/4) + (I13/2))</f>
+        <v>0.14179687499999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -827,16 +830,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F14">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -845,112 +848,112 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
-        <v>0.61874999999999991</v>
+        <f>((B14/256) + (C14/128) + (D14/64) + (E14/32) + (F14/16) + (G14/8) + (H14/4) + (I14/2))</f>
+        <v>0.15468749999999998</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F15">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
-        <v>2.2687499999999998</v>
+        <f>((B15/256) + (C15/128) + (D15/64) + (E15/32) + (F15/16) + (G15/8) + (H15/4) + (I15/2))</f>
+        <v>0.16757812499999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F16">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
-        <v>1.4437499999999999</v>
+        <f>((B16/256) + (C16/128) + (D16/64) + (E16/32) + (F16/16) + (G16/8) + (H16/4) + (I16/2))</f>
+        <v>0.18046874999999998</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F17">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
-        <v>3.09375</v>
+        <f>((B17/256) + (C17/128) + (D17/64) + (E17/32) + (F17/16) + (G17/8) + (H17/4) + (I17/2))</f>
+        <v>0.193359375</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -962,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -977,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
-        <v>0.10312499999999999</v>
+        <f>((B18/256) + (C18/128) + (D18/64) + (E18/32) + (F18/16) + (G18/8) + (H18/4) + (I18/2))</f>
+        <v>0.20624999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -995,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1007,82 +1010,82 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
-        <v>1.7531249999999998</v>
+        <f>((B19/256) + (C19/128) + (D19/64) + (E19/32) + (F19/16) + (G19/8) + (H19/4) + (I19/2))</f>
+        <v>0.21914062499999998</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
-        <v>0.92812499999999998</v>
+        <f>((B20/256) + (C20/128) + (D20/64) + (E20/32) + (F20/16) + (G20/8) + (H20/4) + (I20/2))</f>
+        <v>0.23203124999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
-        <v>2.578125</v>
+        <f>((B21/256) + (C21/128) + (D21/64) + (E21/32) + (F21/16) + (G21/8) + (H21/4) + (I21/2))</f>
+        <v>0.24492187499999998</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1091,16 +1094,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E22">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G22">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1109,107 +1112,107 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
-        <v>0.515625</v>
+        <f>((B22/256) + (C22/128) + (D22/64) + (E22/32) + (F22/16) + (G22/8) + (H22/4) + (I22/2))</f>
+        <v>0.2578125</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E23">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G23">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
-        <v>2.1656249999999999</v>
+        <f>((B23/256) + (C23/128) + (D23/64) + (E23/32) + (F23/16) + (G23/8) + (H23/4) + (I23/2))</f>
+        <v>0.27070312499999999</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E24">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G24">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
-        <v>1.340625</v>
+        <f>((B24/256) + (C24/128) + (D24/64) + (E24/32) + (F24/16) + (G24/8) + (H24/4) + (I24/2))</f>
+        <v>0.28359374999999998</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E25">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G25">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
-        <v>2.9906249999999996</v>
+        <f>((B25/256) + (C25/128) + (D25/64) + (E25/32) + (F25/16) + (G25/8) + (H25/4) + (I25/2))</f>
+        <v>0.29648437499999997</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1241,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f>((B26/256) + (C26/128) + (D26/64) + (E26/32) + (F26/16) + (G26/8) + (H26/4) + (I26/2))</f>
         <v>0.30937499999999996</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1271,22 +1274,22 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
-        <v>1.9593749999999999</v>
+        <f>((B27/256) + (C27/128) + (D27/64) + (E27/32) + (F27/16) + (G27/8) + (H27/4) + (I27/2))</f>
+        <v>0.322265625</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1301,25 +1304,25 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
-        <v>1.1343749999999999</v>
+        <f>((B28/256) + (C28/128) + (D28/64) + (E28/32) + (F28/16) + (G28/8) + (H28/4) + (I28/2))</f>
+        <v>0.33515624999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1334,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
-        <v>2.7843749999999998</v>
+        <f>((B29/256) + (C29/128) + (D29/64) + (E29/32) + (F29/16) + (G29/8) + (H29/4) + (I29/2))</f>
+        <v>0.34804687499999998</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1355,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E30">
         <v>3.3</v>
@@ -1364,7 +1367,7 @@
         <v>3.3</v>
       </c>
       <c r="G30">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1373,22 +1376,22 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
-        <v>0.72187499999999993</v>
+        <f>((B30/256) + (C30/128) + (D30/64) + (E30/32) + (F30/16) + (G30/8) + (H30/4) + (I30/2))</f>
+        <v>0.36093749999999997</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E31">
         <v>3.3</v>
@@ -1397,31 +1400,31 @@
         <v>3.3</v>
       </c>
       <c r="G31">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
-        <v>2.3718749999999997</v>
+        <f>((B31/256) + (C31/128) + (D31/64) + (E31/32) + (F31/16) + (G31/8) + (H31/4) + (I31/2))</f>
+        <v>0.37382812499999996</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E32">
         <v>3.3</v>
@@ -1430,31 +1433,31 @@
         <v>3.3</v>
       </c>
       <c r="G32">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
-        <v>1.546875</v>
+        <f>((B32/256) + (C32/128) + (D32/64) + (E32/32) + (F32/16) + (G32/8) + (H32/4) + (I32/2))</f>
+        <v>0.38671875</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E33">
         <v>3.3</v>
@@ -1463,22 +1466,22 @@
         <v>3.3</v>
       </c>
       <c r="G33">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
-        <v>3.1968749999999999</v>
+        <f>((B33/256) + (C33/128) + (D33/64) + (E33/32) + (F33/16) + (G33/8) + (H33/4) + (I33/2))</f>
+        <v>0.39960937499999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1487,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1496,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1505,22 +1508,22 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
-        <v>5.1562499999999997E-2</v>
+        <f>((B34/256) + (C34/128) + (D34/64) + (E34/32) + (F34/16) + (G34/8) + (H34/4) + (I34/2))</f>
+        <v>0.41249999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1529,31 +1532,31 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
-        <v>1.7015624999999999</v>
+        <f>((B35/256) + (C35/128) + (D35/64) + (E35/32) + (F35/16) + (G35/8) + (H35/4) + (I35/2))</f>
+        <v>0.42539062499999997</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D36">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1562,31 +1565,31 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H36">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
-        <v>0.87656249999999991</v>
+        <f>((B36/256) + (C36/128) + (D36/64) + (E36/32) + (F36/16) + (G36/8) + (H36/4) + (I36/2))</f>
+        <v>0.43828124999999996</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D37">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1595,17 +1598,17 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H37">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <f t="shared" si="0"/>
-        <v>2.5265624999999998</v>
+        <f>((B37/256) + (C37/128) + (D37/64) + (E37/32) + (F37/16) + (G37/8) + (H37/4) + (I37/2))</f>
+        <v>0.451171875</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1637,16 +1640,16 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="0"/>
+        <f>((B38/256) + (C38/128) + (D38/64) + (E38/32) + (F38/16) + (G38/8) + (H38/4) + (I38/2))</f>
         <v>0.46406249999999999</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1667,22 +1670,22 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <f t="shared" si="0"/>
-        <v>2.1140624999999997</v>
+        <f>((B39/256) + (C39/128) + (D39/64) + (E39/32) + (F39/16) + (G39/8) + (H39/4) + (I39/2))</f>
+        <v>0.47695312499999998</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D40">
         <v>3.3</v>
@@ -1697,25 +1700,25 @@
         <v>3.3</v>
       </c>
       <c r="H40">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
-        <v>1.2890625</v>
+        <f>((B40/256) + (C40/128) + (D40/64) + (E40/32) + (F40/16) + (G40/8) + (H40/4) + (I40/2))</f>
+        <v>0.48984374999999997</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D41">
         <v>3.3</v>
@@ -1730,19 +1733,19 @@
         <v>3.3</v>
       </c>
       <c r="H41">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="0"/>
-        <v>2.9390624999999999</v>
+        <f>((B41/256) + (C41/128) + (D41/64) + (E41/32) + (F41/16) + (G41/8) + (H41/4) + (I41/2))</f>
+        <v>0.50273437499999996</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1751,16 +1754,16 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F42">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -1769,112 +1772,112 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <f t="shared" si="0"/>
-        <v>0.2578125</v>
+        <f>((B42/256) + (C42/128) + (D42/64) + (E42/32) + (F42/16) + (G42/8) + (H42/4) + (I42/2))</f>
+        <v>0.515625</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F43">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" si="0"/>
-        <v>1.9078124999999999</v>
+        <f>((B43/256) + (C43/128) + (D43/64) + (E43/32) + (F43/16) + (G43/8) + (H43/4) + (I43/2))</f>
+        <v>0.52851562499999993</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D44">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F44">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H44">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="0"/>
-        <v>1.0828125</v>
+        <f>((B44/256) + (C44/128) + (D44/64) + (E44/32) + (F44/16) + (G44/8) + (H44/4) + (I44/2))</f>
+        <v>0.54140624999999998</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D45">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F45">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H45">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <f t="shared" si="0"/>
-        <v>2.7328124999999996</v>
+        <f>((B45/256) + (C45/128) + (D45/64) + (E45/32) + (F45/16) + (G45/8) + (H45/4) + (I45/2))</f>
+        <v>0.55429687499999991</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1886,10 +1889,10 @@
         <v>3.3</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F46">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>3.3</v>
@@ -1901,16 +1904,16 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="0"/>
-        <v>0.67031249999999998</v>
+        <f>((B46/256) + (C46/128) + (D46/64) + (E46/32) + (F46/16) + (G46/8) + (H46/4) + (I46/2))</f>
+        <v>0.56718749999999996</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1919,10 +1922,10 @@
         <v>3.3</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F47">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>3.3</v>
@@ -1931,82 +1934,82 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="0"/>
-        <v>2.3203125</v>
+        <f>((B47/256) + (C47/128) + (D47/64) + (E47/32) + (F47/16) + (G47/8) + (H47/4) + (I47/2))</f>
+        <v>0.580078125</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D48">
         <v>3.3</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F48">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>3.3</v>
       </c>
       <c r="H48">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <f t="shared" si="0"/>
-        <v>1.4953124999999998</v>
+        <f>((B48/256) + (C48/128) + (D48/64) + (E48/32) + (F48/16) + (G48/8) + (H48/4) + (I48/2))</f>
+        <v>0.59296874999999993</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D49">
         <v>3.3</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F49">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>3.3</v>
       </c>
       <c r="H49">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <f t="shared" si="0"/>
-        <v>3.1453124999999997</v>
+        <f>((B49/256) + (C49/128) + (D49/64) + (E49/32) + (F49/16) + (G49/8) + (H49/4) + (I49/2))</f>
+        <v>0.60585937499999998</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2015,16 +2018,16 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2033,112 +2036,112 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <f t="shared" si="0"/>
-        <v>0.15468749999999998</v>
+        <f>((B50/256) + (C50/128) + (D50/64) + (E50/32) + (F50/16) + (G50/8) + (H50/4) + (I50/2))</f>
+        <v>0.61874999999999991</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <f t="shared" si="0"/>
-        <v>1.8046875</v>
+        <f>((B51/256) + (C51/128) + (D51/64) + (E51/32) + (F51/16) + (G51/8) + (H51/4) + (I51/2))</f>
+        <v>0.63164062499999996</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D52">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H52">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <f t="shared" si="0"/>
-        <v>0.97968749999999993</v>
+        <f>((B52/256) + (C52/128) + (D52/64) + (E52/32) + (F52/16) + (G52/8) + (H52/4) + (I52/2))</f>
+        <v>0.64453125</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D53">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H53">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" si="0"/>
-        <v>2.6296874999999997</v>
+        <f>((B53/256) + (C53/128) + (D53/64) + (E53/32) + (F53/16) + (G53/8) + (H53/4) + (I53/2))</f>
+        <v>0.65742187499999993</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2150,10 +2153,10 @@
         <v>3.3</v>
       </c>
       <c r="E54">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G54">
         <v>3.3</v>
@@ -2165,16 +2168,16 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <f t="shared" si="0"/>
-        <v>0.56718749999999996</v>
+        <f>((B54/256) + (C54/128) + (D54/64) + (E54/32) + (F54/16) + (G54/8) + (H54/4) + (I54/2))</f>
+        <v>0.67031249999999998</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2183,10 +2186,10 @@
         <v>3.3</v>
       </c>
       <c r="E55">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G55">
         <v>3.3</v>
@@ -2195,82 +2198,82 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <f t="shared" si="0"/>
-        <v>2.2171874999999996</v>
+        <f>((B55/256) + (C55/128) + (D55/64) + (E55/32) + (F55/16) + (G55/8) + (H55/4) + (I55/2))</f>
+        <v>0.68320312499999991</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D56">
         <v>3.3</v>
       </c>
       <c r="E56">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G56">
         <v>3.3</v>
       </c>
       <c r="H56">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <f t="shared" si="0"/>
-        <v>1.3921874999999999</v>
+        <f>((B56/256) + (C56/128) + (D56/64) + (E56/32) + (F56/16) + (G56/8) + (H56/4) + (I56/2))</f>
+        <v>0.69609374999999996</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>55</v>
+        <v>236</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D57">
         <v>3.3</v>
       </c>
       <c r="E57">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G57">
         <v>3.3</v>
       </c>
       <c r="H57">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <f t="shared" si="0"/>
-        <v>3.0421874999999998</v>
+        <f>((B57/256) + (C57/128) + (D57/64) + (E57/32) + (F57/16) + (G57/8) + (H57/4) + (I57/2))</f>
+        <v>0.708984375</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2279,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>3.3</v>
@@ -2288,7 +2291,7 @@
         <v>3.3</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2297,22 +2300,22 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <f t="shared" si="0"/>
-        <v>0.36093749999999997</v>
+        <f>((B58/256) + (C58/128) + (D58/64) + (E58/32) + (F58/16) + (G58/8) + (H58/4) + (I58/2))</f>
+        <v>0.72187499999999993</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>3.3</v>
@@ -2321,31 +2324,31 @@
         <v>3.3</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <f t="shared" si="0"/>
-        <v>2.0109374999999998</v>
+        <f>((B59/256) + (C59/128) + (D59/64) + (E59/32) + (F59/16) + (G59/8) + (H59/4) + (I59/2))</f>
+        <v>0.73476562499999998</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D60">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>3.3</v>
@@ -2354,31 +2357,31 @@
         <v>3.3</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H60">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <f t="shared" si="0"/>
-        <v>1.1859374999999999</v>
+        <f>((B60/256) + (C60/128) + (D60/64) + (E60/32) + (F60/16) + (G60/8) + (H60/4) + (I60/2))</f>
+        <v>0.74765624999999991</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>59</v>
+        <v>220</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D61">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>3.3</v>
@@ -2387,17 +2390,17 @@
         <v>3.3</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H61">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <f t="shared" si="0"/>
-        <v>2.8359375</v>
+        <f>((B61/256) + (C61/128) + (D61/64) + (E61/32) + (F61/16) + (G61/8) + (H61/4) + (I61/2))</f>
+        <v>0.76054687499999996</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2429,16 +2432,16 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <f t="shared" si="0"/>
+        <f>((B62/256) + (C62/128) + (D62/64) + (E62/32) + (F62/16) + (G62/8) + (H62/4) + (I62/2))</f>
         <v>0.7734375</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2459,22 +2462,22 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <f t="shared" si="0"/>
-        <v>2.4234374999999999</v>
+        <f>((B63/256) + (C63/128) + (D63/64) + (E63/32) + (F63/16) + (G63/8) + (H63/4) + (I63/2))</f>
+        <v>0.78632812499999993</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D64">
         <v>3.3</v>
@@ -2489,25 +2492,25 @@
         <v>3.3</v>
       </c>
       <c r="H64">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <f t="shared" si="0"/>
-        <v>1.5984375</v>
+        <f>((B64/256) + (C64/128) + (D64/64) + (E64/32) + (F64/16) + (G64/8) + (H64/4) + (I64/2))</f>
+        <v>0.79921874999999998</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D65">
         <v>3.3</v>
@@ -2522,25 +2525,25 @@
         <v>3.3</v>
       </c>
       <c r="H65">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <f t="shared" si="0"/>
-        <v>3.2484374999999996</v>
+        <f>((B65/256) + (C65/128) + (D65/64) + (E65/32) + (F65/16) + (G65/8) + (H65/4) + (I65/2))</f>
+        <v>0.81210937499999991</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2555,25 +2558,25 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <f t="shared" si="0"/>
-        <v>2.5781249999999999E-2</v>
+        <f>((B66/256) + (C66/128) + (D66/64) + (E66/32) + (F66/16) + (G66/8) + (H66/4) + (I66/2))</f>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C67">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2588,14 +2591,14 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I67">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="1">((B67/256) + (C67/128) + (D67/64) + (E67/32) + (F67/16) + (G67/8) + (H67/4) + (I67/2))</f>
-        <v>1.67578125</v>
+        <f>((B67/256) + (C67/128) + (D67/64) + (E67/32) + (F67/16) + (G67/8) + (H67/4) + (I67/2))</f>
+        <v>0.837890625</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2627,16 +2630,16 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <f t="shared" si="1"/>
+        <f>((B68/256) + (C68/128) + (D68/64) + (E68/32) + (F68/16) + (G68/8) + (H68/4) + (I68/2))</f>
         <v>0.85078124999999993</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C69">
         <v>3.3</v>
@@ -2657,25 +2660,25 @@
         <v>3.3</v>
       </c>
       <c r="I69">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <f t="shared" si="1"/>
-        <v>2.5007812499999997</v>
+        <f>((B69/256) + (C69/128) + (D69/64) + (E69/32) + (F69/16) + (G69/8) + (H69/4) + (I69/2))</f>
+        <v>0.86367187499999998</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2684,31 +2687,31 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <f t="shared" si="1"/>
-        <v>0.43828124999999996</v>
+        <f>((B70/256) + (C70/128) + (D70/64) + (E70/32) + (F70/16) + (G70/8) + (H70/4) + (I70/2))</f>
+        <v>0.87656249999999991</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C71">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2717,22 +2720,22 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I71">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <f t="shared" si="1"/>
-        <v>2.0882812499999996</v>
+        <f>((B71/256) + (C71/128) + (D71/64) + (E71/32) + (F71/16) + (G71/8) + (H71/4) + (I71/2))</f>
+        <v>0.88945312499999996</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2741,7 +2744,7 @@
         <v>3.3</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2750,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>3.3</v>
@@ -2759,22 +2762,22 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <f t="shared" si="1"/>
-        <v>1.2632812499999999</v>
+        <f>((B72/256) + (C72/128) + (D72/64) + (E72/32) + (F72/16) + (G72/8) + (H72/4) + (I72/2))</f>
+        <v>0.90234375</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C73">
         <v>3.3</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2783,88 +2786,88 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>3.3</v>
       </c>
       <c r="I73">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <f t="shared" si="1"/>
-        <v>2.9132812499999998</v>
+        <f>((B73/256) + (C73/128) + (D73/64) + (E73/32) + (F73/16) + (G73/8) + (H73/4) + (I73/2))</f>
+        <v>0.91523437499999993</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F74">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <f t="shared" si="1"/>
-        <v>0.23203124999999999</v>
+        <f>((B74/256) + (C74/128) + (D74/64) + (E74/32) + (F74/16) + (G74/8) + (H74/4) + (I74/2))</f>
+        <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C75">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F75">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I75">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <f t="shared" si="1"/>
-        <v>1.8820312499999998</v>
+        <f>((B75/256) + (C75/128) + (D75/64) + (E75/32) + (F75/16) + (G75/8) + (H75/4) + (I75/2))</f>
+        <v>0.94101562499999991</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2876,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F76">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2891,16 +2894,16 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <f t="shared" si="1"/>
-        <v>1.0570312499999999</v>
+        <f>((B76/256) + (C76/128) + (D76/64) + (E76/32) + (F76/16) + (G76/8) + (H76/4) + (I76/2))</f>
+        <v>0.95390624999999996</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C77">
         <v>3.3</v>
@@ -2909,10 +2912,10 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F77">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2921,82 +2924,82 @@
         <v>3.3</v>
       </c>
       <c r="I77">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <f t="shared" si="1"/>
-        <v>2.70703125</v>
+        <f>((B77/256) + (C77/128) + (D77/64) + (E77/32) + (F77/16) + (G77/8) + (H77/4) + (I77/2))</f>
+        <v>0.966796875</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F78">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <f t="shared" si="1"/>
-        <v>0.64453125</v>
+        <f>((B78/256) + (C78/128) + (D78/64) + (E78/32) + (F78/16) + (G78/8) + (H78/4) + (I78/2))</f>
+        <v>0.97968749999999993</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C79">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F79">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I79">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <f t="shared" si="1"/>
-        <v>2.2945312499999999</v>
+        <f>((B79/256) + (C79/128) + (D79/64) + (E79/32) + (F79/16) + (G79/8) + (H79/4) + (I79/2))</f>
+        <v>0.99257812499999998</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3005,16 +3008,16 @@
         <v>3.3</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F80">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>3.3</v>
@@ -3023,112 +3026,112 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <f t="shared" si="1"/>
-        <v>1.46953125</v>
+        <f>((B80/256) + (C80/128) + (D80/64) + (E80/32) + (F80/16) + (G80/8) + (H80/4) + (I80/2))</f>
+        <v>1.0054687499999999</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C81">
         <v>3.3</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F81">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>3.3</v>
       </c>
       <c r="I81">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <f t="shared" si="1"/>
-        <v>3.1195312499999996</v>
+        <f>((B81/256) + (C81/128) + (D81/64) + (E81/32) + (F81/16) + (G81/8) + (H81/4) + (I81/2))</f>
+        <v>1.018359375</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" si="1"/>
-        <v>0.12890625</v>
+        <f>((B82/256) + (C82/128) + (D82/64) + (E82/32) + (F82/16) + (G82/8) + (H82/4) + (I82/2))</f>
+        <v>1.03125</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C83">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I83">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <f t="shared" si="1"/>
-        <v>1.7789062499999999</v>
+        <f>((B83/256) + (C83/128) + (D83/64) + (E83/32) + (F83/16) + (G83/8) + (H83/4) + (I83/2))</f>
+        <v>1.0441406249999998</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3140,10 +3143,10 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3155,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <f t="shared" si="1"/>
-        <v>0.95390624999999996</v>
+        <f>((B84/256) + (C84/128) + (D84/64) + (E84/32) + (F84/16) + (G84/8) + (H84/4) + (I84/2))</f>
+        <v>1.0570312499999999</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C85">
         <v>3.3</v>
@@ -3173,10 +3176,10 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3185,82 +3188,82 @@
         <v>3.3</v>
       </c>
       <c r="I85">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" si="1"/>
-        <v>2.6039062499999996</v>
+        <f>((B85/256) + (C85/128) + (D85/64) + (E85/32) + (F85/16) + (G85/8) + (H85/4) + (I85/2))</f>
+        <v>1.0699218749999999</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E86">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G86">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <f t="shared" si="1"/>
-        <v>0.54140624999999998</v>
+        <f>((B86/256) + (C86/128) + (D86/64) + (E86/32) + (F86/16) + (G86/8) + (H86/4) + (I86/2))</f>
+        <v>1.0828125</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C87">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E87">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G87">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I87">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <f t="shared" si="1"/>
-        <v>2.19140625</v>
+        <f>((B87/256) + (C87/128) + (D87/64) + (E87/32) + (F87/16) + (G87/8) + (H87/4) + (I87/2))</f>
+        <v>1.095703125</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3269,16 +3272,16 @@
         <v>3.3</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E88">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G88">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>3.3</v>
@@ -3287,52 +3290,52 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <f t="shared" si="1"/>
-        <v>1.3664062499999998</v>
+        <f>((B88/256) + (C88/128) + (D88/64) + (E88/32) + (F88/16) + (G88/8) + (H88/4) + (I88/2))</f>
+        <v>1.1085937499999998</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C89">
         <v>3.3</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E89">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G89">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>3.3</v>
       </c>
       <c r="I89">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <f t="shared" si="1"/>
-        <v>3.0164062499999997</v>
+        <f>((B89/256) + (C89/128) + (D89/64) + (E89/32) + (F89/16) + (G89/8) + (H89/4) + (I89/2))</f>
+        <v>1.1214843749999999</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3347,25 +3350,25 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <f t="shared" si="1"/>
-        <v>0.33515624999999999</v>
+        <f>((B90/256) + (C90/128) + (D90/64) + (E90/32) + (F90/16) + (G90/8) + (H90/4) + (I90/2))</f>
+        <v>1.1343749999999999</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C91">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3380,14 +3383,14 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I91">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <f t="shared" si="1"/>
-        <v>1.98515625</v>
+        <f>((B91/256) + (C91/128) + (D91/64) + (E91/32) + (F91/16) + (G91/8) + (H91/4) + (I91/2))</f>
+        <v>1.147265625</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3419,16 +3422,16 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <f t="shared" si="1"/>
+        <f>((B92/256) + (C92/128) + (D92/64) + (E92/32) + (F92/16) + (G92/8) + (H92/4) + (I92/2))</f>
         <v>1.16015625</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C93">
         <v>3.3</v>
@@ -3449,25 +3452,25 @@
         <v>3.3</v>
       </c>
       <c r="I93">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" si="1"/>
-        <v>2.8101562499999999</v>
+        <f>((B93/256) + (C93/128) + (D93/64) + (E93/32) + (F93/16) + (G93/8) + (H93/4) + (I93/2))</f>
+        <v>1.1730468749999998</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E94">
         <v>3.3</v>
@@ -3476,31 +3479,31 @@
         <v>3.3</v>
       </c>
       <c r="G94">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <f t="shared" si="1"/>
-        <v>0.74765624999999991</v>
+        <f>((B94/256) + (C94/128) + (D94/64) + (E94/32) + (F94/16) + (G94/8) + (H94/4) + (I94/2))</f>
+        <v>1.1859374999999999</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C95">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E95">
         <v>3.3</v>
@@ -3509,22 +3512,22 @@
         <v>3.3</v>
       </c>
       <c r="G95">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I95">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <f t="shared" si="1"/>
-        <v>2.3976562499999998</v>
+        <f>((B95/256) + (C95/128) + (D95/64) + (E95/32) + (F95/16) + (G95/8) + (H95/4) + (I95/2))</f>
+        <v>1.1988281249999999</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3533,7 +3536,7 @@
         <v>3.3</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E96">
         <v>3.3</v>
@@ -3542,7 +3545,7 @@
         <v>3.3</v>
       </c>
       <c r="G96">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>3.3</v>
@@ -3551,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <f t="shared" si="1"/>
-        <v>1.5726562499999999</v>
+        <f>((B96/256) + (C96/128) + (D96/64) + (E96/32) + (F96/16) + (G96/8) + (H96/4) + (I96/2))</f>
+        <v>1.21171875</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C97">
         <v>3.3</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E97">
         <v>3.3</v>
@@ -3575,31 +3578,31 @@
         <v>3.3</v>
       </c>
       <c r="G97">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>3.3</v>
       </c>
       <c r="I97">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <f t="shared" si="1"/>
-        <v>3.22265625</v>
+        <f>((B97/256) + (C97/128) + (D97/64) + (E97/32) + (F97/16) + (G97/8) + (H97/4) + (I97/2))</f>
+        <v>1.224609375</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3608,31 +3611,31 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <f t="shared" si="1"/>
-        <v>7.7343749999999989E-2</v>
+        <f>((B98/256) + (C98/128) + (D98/64) + (E98/32) + (F98/16) + (G98/8) + (H98/4) + (I98/2))</f>
+        <v>1.2374999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C99">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3641,22 +3644,22 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I99">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <f t="shared" si="1"/>
-        <v>1.72734375</v>
+        <f>((B99/256) + (C99/128) + (D99/64) + (E99/32) + (F99/16) + (G99/8) + (H99/4) + (I99/2))</f>
+        <v>1.2503906249999999</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3665,7 +3668,7 @@
         <v>3.3</v>
       </c>
       <c r="D100">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3674,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H100">
         <v>3.3</v>
@@ -3683,22 +3686,22 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <f t="shared" si="1"/>
-        <v>0.90234375</v>
+        <f>((B100/256) + (C100/128) + (D100/64) + (E100/32) + (F100/16) + (G100/8) + (H100/4) + (I100/2))</f>
+        <v>1.2632812499999999</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C101">
         <v>3.3</v>
       </c>
       <c r="D101">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -3707,28 +3710,28 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H101">
         <v>3.3</v>
       </c>
       <c r="I101">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <f t="shared" si="1"/>
-        <v>2.5523437499999999</v>
+        <f>((B101/256) + (C101/128) + (D101/64) + (E101/32) + (F101/16) + (G101/8) + (H101/4) + (I101/2))</f>
+        <v>1.276171875</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>3.3</v>
@@ -3743,25 +3746,25 @@
         <v>3.3</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <f t="shared" si="1"/>
-        <v>0.48984374999999997</v>
+        <f>((B102/256) + (C102/128) + (D102/64) + (E102/32) + (F102/16) + (G102/8) + (H102/4) + (I102/2))</f>
+        <v>1.2890625</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C103">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>3.3</v>
@@ -3776,14 +3779,14 @@
         <v>3.3</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I103">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <f t="shared" si="1"/>
-        <v>2.1398437499999998</v>
+        <f>((B103/256) + (C103/128) + (D103/64) + (E103/32) + (F103/16) + (G103/8) + (H103/4) + (I103/2))</f>
+        <v>1.3019531249999998</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3815,16 +3818,16 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <f t="shared" si="1"/>
+        <f>((B104/256) + (C104/128) + (D104/64) + (E104/32) + (F104/16) + (G104/8) + (H104/4) + (I104/2))</f>
         <v>1.3148437499999999</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>103</v>
+        <v>230</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C105">
         <v>3.3</v>
@@ -3845,82 +3848,82 @@
         <v>3.3</v>
       </c>
       <c r="I105">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <f t="shared" si="1"/>
-        <v>2.96484375</v>
+        <f>((B105/256) + (C105/128) + (D105/64) + (E105/32) + (F105/16) + (G105/8) + (H105/4) + (I105/2))</f>
+        <v>1.3277343749999999</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F106">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <f t="shared" si="1"/>
-        <v>0.28359374999999998</v>
+        <f>((B106/256) + (C106/128) + (D106/64) + (E106/32) + (F106/16) + (G106/8) + (H106/4) + (I106/2))</f>
+        <v>1.340625</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C107">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F107">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I107">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <f t="shared" si="1"/>
-        <v>1.93359375</v>
+        <f>((B107/256) + (C107/128) + (D107/64) + (E107/32) + (F107/16) + (G107/8) + (H107/4) + (I107/2))</f>
+        <v>1.353515625</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -3929,16 +3932,16 @@
         <v>3.3</v>
       </c>
       <c r="D108">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F108">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H108">
         <v>3.3</v>
@@ -3947,112 +3950,112 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <f t="shared" si="1"/>
-        <v>1.1085937499999998</v>
+        <f>((B108/256) + (C108/128) + (D108/64) + (E108/32) + (F108/16) + (G108/8) + (H108/4) + (I108/2))</f>
+        <v>1.3664062499999998</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C109">
         <v>3.3</v>
       </c>
       <c r="D109">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F109">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H109">
         <v>3.3</v>
       </c>
       <c r="I109">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J109">
-        <f t="shared" si="1"/>
-        <v>2.7585937499999997</v>
+        <f>((B109/256) + (C109/128) + (D109/64) + (E109/32) + (F109/16) + (G109/8) + (H109/4) + (I109/2))</f>
+        <v>1.3792968749999999</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>3.3</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F110">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G110">
         <v>3.3</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <f t="shared" si="1"/>
-        <v>0.69609374999999996</v>
+        <f>((B110/256) + (C110/128) + (D110/64) + (E110/32) + (F110/16) + (G110/8) + (H110/4) + (I110/2))</f>
+        <v>1.3921874999999999</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C111">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>3.3</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F111">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>3.3</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I111">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <f t="shared" si="1"/>
-        <v>2.3460937499999996</v>
+        <f>((B111/256) + (C111/128) + (D111/64) + (E111/32) + (F111/16) + (G111/8) + (H111/4) + (I111/2))</f>
+        <v>1.405078125</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4064,10 +4067,10 @@
         <v>3.3</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F112">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G112">
         <v>3.3</v>
@@ -4079,16 +4082,16 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <f t="shared" si="1"/>
-        <v>1.5210937499999999</v>
+        <f>((B112/256) + (C112/128) + (D112/64) + (E112/32) + (F112/16) + (G112/8) + (H112/4) + (I112/2))</f>
+        <v>1.41796875</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C113">
         <v>3.3</v>
@@ -4097,10 +4100,10 @@
         <v>3.3</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F113">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>3.3</v>
@@ -4109,82 +4112,82 @@
         <v>3.3</v>
       </c>
       <c r="I113">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <f t="shared" si="1"/>
-        <v>3.1710937499999998</v>
+        <f>((B113/256) + (C113/128) + (D113/64) + (E113/32) + (F113/16) + (G113/8) + (H113/4) + (I113/2))</f>
+        <v>1.4308593749999998</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <f t="shared" si="1"/>
-        <v>0.18046874999999998</v>
+        <f>((B114/256) + (C114/128) + (D114/64) + (E114/32) + (F114/16) + (G114/8) + (H114/4) + (I114/2))</f>
+        <v>1.4437499999999999</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C115">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I115">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <f t="shared" si="1"/>
-        <v>1.8304687499999999</v>
+        <f>((B115/256) + (C115/128) + (D115/64) + (E115/32) + (F115/16) + (G115/8) + (H115/4) + (I115/2))</f>
+        <v>1.4566406249999999</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4193,16 +4196,16 @@
         <v>3.3</v>
       </c>
       <c r="D116">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H116">
         <v>3.3</v>
@@ -4211,112 +4214,112 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <f t="shared" si="1"/>
-        <v>1.0054687499999999</v>
+        <f>((B116/256) + (C116/128) + (D116/64) + (E116/32) + (F116/16) + (G116/8) + (H116/4) + (I116/2))</f>
+        <v>1.46953125</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C117">
         <v>3.3</v>
       </c>
       <c r="D117">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H117">
         <v>3.3</v>
       </c>
       <c r="I117">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J117">
-        <f t="shared" si="1"/>
-        <v>2.6554687499999998</v>
+        <f>((B117/256) + (C117/128) + (D117/64) + (E117/32) + (F117/16) + (G117/8) + (H117/4) + (I117/2))</f>
+        <v>1.482421875</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D118">
         <v>3.3</v>
       </c>
       <c r="E118">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G118">
         <v>3.3</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <f t="shared" si="1"/>
-        <v>0.59296874999999993</v>
+        <f>((B118/256) + (C118/128) + (D118/64) + (E118/32) + (F118/16) + (G118/8) + (H118/4) + (I118/2))</f>
+        <v>1.4953124999999998</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C119">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>3.3</v>
       </c>
       <c r="E119">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G119">
         <v>3.3</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I119">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" si="1"/>
-        <v>2.2429687499999997</v>
+        <f>((B119/256) + (C119/128) + (D119/64) + (E119/32) + (F119/16) + (G119/8) + (H119/4) + (I119/2))</f>
+        <v>1.5082031249999999</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4328,10 +4331,10 @@
         <v>3.3</v>
       </c>
       <c r="E120">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G120">
         <v>3.3</v>
@@ -4343,16 +4346,16 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <f t="shared" si="1"/>
-        <v>1.41796875</v>
+        <f>((B120/256) + (C120/128) + (D120/64) + (E120/32) + (F120/16) + (G120/8) + (H120/4) + (I120/2))</f>
+        <v>1.5210937499999999</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C121">
         <v>3.3</v>
@@ -4361,10 +4364,10 @@
         <v>3.3</v>
       </c>
       <c r="E121">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G121">
         <v>3.3</v>
@@ -4373,25 +4376,25 @@
         <v>3.3</v>
       </c>
       <c r="I121">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J121">
-        <f t="shared" si="1"/>
-        <v>3.0679687499999999</v>
+        <f>((B121/256) + (C121/128) + (D121/64) + (E121/32) + (F121/16) + (G121/8) + (H121/4) + (I121/2))</f>
+        <v>1.533984375</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E122">
         <v>3.3</v>
@@ -4400,31 +4403,31 @@
         <v>3.3</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <f t="shared" si="1"/>
-        <v>0.38671875</v>
+        <f>((B122/256) + (C122/128) + (D122/64) + (E122/32) + (F122/16) + (G122/8) + (H122/4) + (I122/2))</f>
+        <v>1.546875</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C123">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>3.3</v>
@@ -4433,22 +4436,22 @@
         <v>3.3</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I123">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <f t="shared" si="1"/>
-        <v>2.0367187499999999</v>
+        <f>((B123/256) + (C123/128) + (D123/64) + (E123/32) + (F123/16) + (G123/8) + (H123/4) + (I123/2))</f>
+        <v>1.5597656249999998</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4457,7 +4460,7 @@
         <v>3.3</v>
       </c>
       <c r="D124">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>3.3</v>
@@ -4466,7 +4469,7 @@
         <v>3.3</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H124">
         <v>3.3</v>
@@ -4475,22 +4478,22 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <f t="shared" si="1"/>
-        <v>1.21171875</v>
+        <f>((B124/256) + (C124/128) + (D124/64) + (E124/32) + (F124/16) + (G124/8) + (H124/4) + (I124/2))</f>
+        <v>1.5726562499999999</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C125">
         <v>3.3</v>
       </c>
       <c r="D125">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E125">
         <v>3.3</v>
@@ -4499,28 +4502,28 @@
         <v>3.3</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H125">
         <v>3.3</v>
       </c>
       <c r="I125">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <f t="shared" si="1"/>
-        <v>2.8617187499999996</v>
+        <f>((B125/256) + (C125/128) + (D125/64) + (E125/32) + (F125/16) + (G125/8) + (H125/4) + (I125/2))</f>
+        <v>1.5855468749999999</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>3.3</v>
@@ -4535,25 +4538,25 @@
         <v>3.3</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <f t="shared" si="1"/>
-        <v>0.79921874999999998</v>
+        <f>((B126/256) + (C126/128) + (D126/64) + (E126/32) + (F126/16) + (G126/8) + (H126/4) + (I126/2))</f>
+        <v>1.5984375</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C127">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>3.3</v>
@@ -4568,14 +4571,14 @@
         <v>3.3</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I127">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J127">
-        <f t="shared" si="1"/>
-        <v>2.44921875</v>
+        <f>((B127/256) + (C127/128) + (D127/64) + (E127/32) + (F127/16) + (G127/8) + (H127/4) + (I127/2))</f>
+        <v>1.611328125</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -4607,16 +4610,16 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <f t="shared" si="1"/>
+        <f>((B128/256) + (C128/128) + (D128/64) + (E128/32) + (F128/16) + (G128/8) + (H128/4) + (I128/2))</f>
         <v>1.6242187499999998</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C129">
         <v>3.3</v>
@@ -4637,19 +4640,19 @@
         <v>3.3</v>
       </c>
       <c r="I129">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <f t="shared" si="1"/>
-        <v>3.2742187499999997</v>
+        <f>((B129/256) + (C129/128) + (D129/64) + (E129/32) + (F129/16) + (G129/8) + (H129/4) + (I129/2))</f>
+        <v>1.6371093749999999</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="B130">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -4670,11 +4673,11 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J130">
-        <f t="shared" si="1"/>
-        <v>1.2890624999999999E-2</v>
+        <f>((B130/256) + (C130/128) + (D130/64) + (E130/32) + (F130/16) + (G130/8) + (H130/4) + (I130/2))</f>
+        <v>1.65</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -4706,19 +4709,19 @@
         <v>3.3</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="2">((B131/256) + (C131/128) + (D131/64) + (E131/32) + (F131/16) + (G131/8) + (H131/4) + (I131/2))</f>
+        <f>((B131/256) + (C131/128) + (D131/64) + (E131/32) + (F131/16) + (G131/8) + (H131/4) + (I131/2))</f>
         <v>1.662890625</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="B132">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -4733,25 +4736,25 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J132">
-        <f t="shared" si="2"/>
-        <v>0.837890625</v>
+        <f>((B132/256) + (C132/128) + (D132/64) + (E132/32) + (F132/16) + (G132/8) + (H132/4) + (I132/2))</f>
+        <v>1.67578125</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="B133">
         <v>3.3</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -4766,28 +4769,28 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>3.3</v>
       </c>
       <c r="J133">
-        <f t="shared" si="2"/>
-        <v>2.4878906249999999</v>
+        <f>((B133/256) + (C133/128) + (D133/64) + (E133/32) + (F133/16) + (G133/8) + (H133/4) + (I133/2))</f>
+        <v>1.6886718749999998</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="B134">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -4796,22 +4799,22 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J134">
-        <f t="shared" si="2"/>
-        <v>0.42539062499999997</v>
+        <f>((B134/256) + (C134/128) + (D134/64) + (E134/32) + (F134/16) + (G134/8) + (H134/4) + (I134/2))</f>
+        <v>1.7015624999999999</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="B135">
         <v>3.3</v>
@@ -4820,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -4829,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -4838,22 +4841,22 @@
         <v>3.3</v>
       </c>
       <c r="J135">
-        <f t="shared" si="2"/>
-        <v>2.0753906249999998</v>
+        <f>((B135/256) + (C135/128) + (D135/64) + (E135/32) + (F135/16) + (G135/8) + (H135/4) + (I135/2))</f>
+        <v>1.7144531249999999</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="B136">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -4862,31 +4865,31 @@
         <v>0</v>
       </c>
       <c r="G136">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J136">
-        <f t="shared" si="2"/>
-        <v>1.2503906249999999</v>
+        <f>((B136/256) + (C136/128) + (D136/64) + (E136/32) + (F136/16) + (G136/8) + (H136/4) + (I136/2))</f>
+        <v>1.72734375</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="B137">
         <v>3.3</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -4895,25 +4898,25 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>3.3</v>
       </c>
       <c r="J137">
-        <f t="shared" si="2"/>
-        <v>2.900390625</v>
+        <f>((B137/256) + (C137/128) + (D137/64) + (E137/32) + (F137/16) + (G137/8) + (H137/4) + (I137/2))</f>
+        <v>1.740234375</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="B138">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -4922,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F138">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4934,16 +4937,16 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J138">
-        <f t="shared" si="2"/>
-        <v>0.21914062499999998</v>
+        <f>((B138/256) + (C138/128) + (D138/64) + (E138/32) + (F138/16) + (G138/8) + (H138/4) + (I138/2))</f>
+        <v>1.7531249999999998</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B139">
         <v>3.3</v>
@@ -4955,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F139">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4970,112 +4973,112 @@
         <v>3.3</v>
       </c>
       <c r="J139">
-        <f t="shared" si="2"/>
-        <v>1.869140625</v>
+        <f>((B139/256) + (C139/128) + (D139/64) + (E139/32) + (F139/16) + (G139/8) + (H139/4) + (I139/2))</f>
+        <v>1.7660156249999999</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="B140">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F140">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J140">
-        <f t="shared" si="2"/>
-        <v>1.0441406249999998</v>
+        <f>((B140/256) + (C140/128) + (D140/64) + (E140/32) + (F140/16) + (G140/8) + (H140/4) + (I140/2))</f>
+        <v>1.7789062499999999</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="B141">
         <v>3.3</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F141">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>3.3</v>
       </c>
       <c r="J141">
-        <f t="shared" si="2"/>
-        <v>2.6941406249999997</v>
+        <f>((B141/256) + (C141/128) + (D141/64) + (E141/32) + (F141/16) + (G141/8) + (H141/4) + (I141/2))</f>
+        <v>1.791796875</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="B142">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F142">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J142">
-        <f t="shared" si="2"/>
-        <v>0.63164062499999996</v>
+        <f>((B142/256) + (C142/128) + (D142/64) + (E142/32) + (F142/16) + (G142/8) + (H142/4) + (I142/2))</f>
+        <v>1.8046875</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="B143">
         <v>3.3</v>
@@ -5084,16 +5087,16 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F143">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -5102,82 +5105,82 @@
         <v>3.3</v>
       </c>
       <c r="J143">
-        <f t="shared" si="2"/>
-        <v>2.2816406249999996</v>
+        <f>((B143/256) + (C143/128) + (D143/64) + (E143/32) + (F143/16) + (G143/8) + (H143/4) + (I143/2))</f>
+        <v>1.8175781249999998</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B144">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F144">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J144">
-        <f t="shared" si="2"/>
-        <v>1.4566406249999999</v>
+        <f>((B144/256) + (C144/128) + (D144/64) + (E144/32) + (F144/16) + (G144/8) + (H144/4) + (I144/2))</f>
+        <v>1.8304687499999999</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="B145">
         <v>3.3</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F145">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>3.3</v>
       </c>
       <c r="J145">
-        <f t="shared" si="2"/>
-        <v>3.1066406249999998</v>
+        <f>((B145/256) + (C145/128) + (D145/64) + (E145/32) + (F145/16) + (G145/8) + (H145/4) + (I145/2))</f>
+        <v>1.8433593749999999</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="B146">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -5186,10 +5189,10 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -5198,16 +5201,16 @@
         <v>0</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J146">
-        <f t="shared" si="2"/>
-        <v>0.116015625</v>
+        <f>((B146/256) + (C146/128) + (D146/64) + (E146/32) + (F146/16) + (G146/8) + (H146/4) + (I146/2))</f>
+        <v>1.85625</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B147">
         <v>3.3</v>
@@ -5219,10 +5222,10 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -5234,112 +5237,112 @@
         <v>3.3</v>
       </c>
       <c r="J147">
-        <f t="shared" si="2"/>
-        <v>1.7660156249999999</v>
+        <f>((B147/256) + (C147/128) + (D147/64) + (E147/32) + (F147/16) + (G147/8) + (H147/4) + (I147/2))</f>
+        <v>1.869140625</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B148">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J148">
-        <f t="shared" si="2"/>
-        <v>0.94101562499999991</v>
+        <f>((B148/256) + (C148/128) + (D148/64) + (E148/32) + (F148/16) + (G148/8) + (H148/4) + (I148/2))</f>
+        <v>1.8820312499999998</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="B149">
         <v>3.3</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>3.3</v>
       </c>
       <c r="J149">
-        <f t="shared" si="2"/>
-        <v>2.5910156249999998</v>
+        <f>((B149/256) + (C149/128) + (D149/64) + (E149/32) + (F149/16) + (G149/8) + (H149/4) + (I149/2))</f>
+        <v>1.8949218749999999</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="B150">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E150">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G150">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J150">
-        <f t="shared" si="2"/>
-        <v>0.52851562499999993</v>
+        <f>((B150/256) + (C150/128) + (D150/64) + (E150/32) + (F150/16) + (G150/8) + (H150/4) + (I150/2))</f>
+        <v>1.9078124999999999</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B151">
         <v>3.3</v>
@@ -5348,16 +5351,16 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E151">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G151">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -5366,82 +5369,82 @@
         <v>3.3</v>
       </c>
       <c r="J151">
-        <f t="shared" si="2"/>
-        <v>2.1785156249999997</v>
+        <f>((B151/256) + (C151/128) + (D151/64) + (E151/32) + (F151/16) + (G151/8) + (H151/4) + (I151/2))</f>
+        <v>1.920703125</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B152">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E152">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G152">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J152">
-        <f t="shared" si="2"/>
-        <v>1.353515625</v>
+        <f>((B152/256) + (C152/128) + (D152/64) + (E152/32) + (F152/16) + (G152/8) + (H152/4) + (I152/2))</f>
+        <v>1.93359375</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="B153">
         <v>3.3</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E153">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G153">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>3.3</v>
       </c>
       <c r="J153">
-        <f t="shared" si="2"/>
-        <v>3.0035156249999999</v>
+        <f>((B153/256) + (C153/128) + (D153/64) + (E153/32) + (F153/16) + (G153/8) + (H153/4) + (I153/2))</f>
+        <v>1.9464843749999998</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="B154">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -5462,11 +5465,11 @@
         <v>0</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J154">
-        <f t="shared" si="2"/>
-        <v>0.322265625</v>
+        <f>((B154/256) + (C154/128) + (D154/64) + (E154/32) + (F154/16) + (G154/8) + (H154/4) + (I154/2))</f>
+        <v>1.9593749999999999</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5498,19 +5501,19 @@
         <v>3.3</v>
       </c>
       <c r="J155">
-        <f t="shared" si="2"/>
+        <f>((B155/256) + (C155/128) + (D155/64) + (E155/32) + (F155/16) + (G155/8) + (H155/4) + (I155/2))</f>
         <v>1.9722656249999999</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="B156">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -5525,25 +5528,25 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J156">
-        <f t="shared" si="2"/>
-        <v>1.147265625</v>
+        <f>((B156/256) + (C156/128) + (D156/64) + (E156/32) + (F156/16) + (G156/8) + (H156/4) + (I156/2))</f>
+        <v>1.98515625</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="B157">
         <v>3.3</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -5558,28 +5561,28 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>3.3</v>
       </c>
       <c r="J157">
-        <f t="shared" si="2"/>
-        <v>2.7972656249999996</v>
+        <f>((B157/256) + (C157/128) + (D157/64) + (E157/32) + (F157/16) + (G157/8) + (H157/4) + (I157/2))</f>
+        <v>1.998046875</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="B158">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E158">
         <v>3.3</v>
@@ -5588,22 +5591,22 @@
         <v>3.3</v>
       </c>
       <c r="G158">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J158">
-        <f t="shared" si="2"/>
-        <v>0.73476562499999998</v>
+        <f>((B158/256) + (C158/128) + (D158/64) + (E158/32) + (F158/16) + (G158/8) + (H158/4) + (I158/2))</f>
+        <v>2.0109374999999998</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="B159">
         <v>3.3</v>
@@ -5612,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E159">
         <v>3.3</v>
@@ -5621,7 +5624,7 @@
         <v>3.3</v>
       </c>
       <c r="G159">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -5630,22 +5633,22 @@
         <v>3.3</v>
       </c>
       <c r="J159">
-        <f t="shared" si="2"/>
-        <v>2.384765625</v>
+        <f>((B159/256) + (C159/128) + (D159/64) + (E159/32) + (F159/16) + (G159/8) + (H159/4) + (I159/2))</f>
+        <v>2.0238281249999996</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="B160">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E160">
         <v>3.3</v>
@@ -5654,31 +5657,31 @@
         <v>3.3</v>
       </c>
       <c r="G160">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J160">
-        <f t="shared" si="2"/>
-        <v>1.5597656249999998</v>
+        <f>((B160/256) + (C160/128) + (D160/64) + (E160/32) + (F160/16) + (G160/8) + (H160/4) + (I160/2))</f>
+        <v>2.0367187499999999</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="B161">
         <v>3.3</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E161">
         <v>3.3</v>
@@ -5687,31 +5690,31 @@
         <v>3.3</v>
       </c>
       <c r="G161">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>3.3</v>
       </c>
       <c r="J161">
-        <f t="shared" si="2"/>
-        <v>3.2097656249999997</v>
+        <f>((B161/256) + (C161/128) + (D161/64) + (E161/32) + (F161/16) + (G161/8) + (H161/4) + (I161/2))</f>
+        <v>2.0496093749999997</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="B162">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -5720,22 +5723,22 @@
         <v>0</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J162">
-        <f t="shared" si="2"/>
-        <v>6.4453125E-2</v>
+        <f>((B162/256) + (C162/128) + (D162/64) + (E162/32) + (F162/16) + (G162/8) + (H162/4) + (I162/2))</f>
+        <v>2.0625</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B163">
         <v>3.3</v>
@@ -5744,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -5753,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -5762,22 +5765,22 @@
         <v>3.3</v>
       </c>
       <c r="J163">
-        <f t="shared" si="2"/>
-        <v>1.7144531249999999</v>
+        <f>((B163/256) + (C163/128) + (D163/64) + (E163/32) + (F163/16) + (G163/8) + (H163/4) + (I163/2))</f>
+        <v>2.0753906249999998</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="B164">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D164">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -5786,31 +5789,31 @@
         <v>0</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H164">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J164">
-        <f t="shared" si="2"/>
-        <v>0.88945312499999996</v>
+        <f>((B164/256) + (C164/128) + (D164/64) + (E164/32) + (F164/16) + (G164/8) + (H164/4) + (I164/2))</f>
+        <v>2.0882812499999996</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="B165">
         <v>3.3</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D165">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -5819,25 +5822,25 @@
         <v>0</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H165">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>3.3</v>
       </c>
       <c r="J165">
-        <f t="shared" si="2"/>
-        <v>2.5394531249999996</v>
+        <f>((B165/256) + (C165/128) + (D165/64) + (E165/32) + (F165/16) + (G165/8) + (H165/4) + (I165/2))</f>
+        <v>2.1011718749999999</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="B166">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -5858,11 +5861,11 @@
         <v>0</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J166">
-        <f t="shared" si="2"/>
-        <v>0.47695312499999998</v>
+        <f>((B166/256) + (C166/128) + (D166/64) + (E166/32) + (F166/16) + (G166/8) + (H166/4) + (I166/2))</f>
+        <v>2.1140624999999997</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -5894,19 +5897,19 @@
         <v>3.3</v>
       </c>
       <c r="J167">
-        <f t="shared" si="2"/>
+        <f>((B167/256) + (C167/128) + (D167/64) + (E167/32) + (F167/16) + (G167/8) + (H167/4) + (I167/2))</f>
         <v>2.126953125</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="B168">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D168">
         <v>3.3</v>
@@ -5921,25 +5924,25 @@
         <v>3.3</v>
       </c>
       <c r="H168">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J168">
-        <f t="shared" si="2"/>
-        <v>1.3019531249999998</v>
+        <f>((B168/256) + (C168/128) + (D168/64) + (E168/32) + (F168/16) + (G168/8) + (H168/4) + (I168/2))</f>
+        <v>2.1398437499999998</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="B169">
         <v>3.3</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D169">
         <v>3.3</v>
@@ -5954,52 +5957,52 @@
         <v>3.3</v>
       </c>
       <c r="H169">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>3.3</v>
       </c>
       <c r="J169">
-        <f t="shared" si="2"/>
-        <v>2.9519531249999997</v>
+        <f>((B169/256) + (C169/128) + (D169/64) + (E169/32) + (F169/16) + (G169/8) + (H169/4) + (I169/2))</f>
+        <v>2.1527343749999996</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="B170">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
       <c r="D170">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F170">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J170">
-        <f t="shared" si="2"/>
-        <v>0.27070312499999999</v>
+        <f>((B170/256) + (C170/128) + (D170/64) + (E170/32) + (F170/16) + (G170/8) + (H170/4) + (I170/2))</f>
+        <v>2.1656249999999999</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B171">
         <v>3.3</v>
@@ -6008,16 +6011,16 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F171">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -6026,82 +6029,82 @@
         <v>3.3</v>
       </c>
       <c r="J171">
-        <f t="shared" si="2"/>
-        <v>1.920703125</v>
+        <f>((B171/256) + (C171/128) + (D171/64) + (E171/32) + (F171/16) + (G171/8) + (H171/4) + (I171/2))</f>
+        <v>2.1785156249999997</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="B172">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D172">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F172">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H172">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J172">
-        <f t="shared" si="2"/>
-        <v>1.095703125</v>
+        <f>((B172/256) + (C172/128) + (D172/64) + (E172/32) + (F172/16) + (G172/8) + (H172/4) + (I172/2))</f>
+        <v>2.19140625</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="B173">
         <v>3.3</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D173">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F173">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H173">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>3.3</v>
       </c>
       <c r="J173">
-        <f t="shared" si="2"/>
-        <v>2.7457031249999999</v>
+        <f>((B173/256) + (C173/128) + (D173/64) + (E173/32) + (F173/16) + (G173/8) + (H173/4) + (I173/2))</f>
+        <v>2.2042968749999998</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="B174">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -6110,10 +6113,10 @@
         <v>3.3</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F174">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G174">
         <v>3.3</v>
@@ -6122,16 +6125,16 @@
         <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J174">
-        <f t="shared" si="2"/>
-        <v>0.68320312499999991</v>
+        <f>((B174/256) + (C174/128) + (D174/64) + (E174/32) + (F174/16) + (G174/8) + (H174/4) + (I174/2))</f>
+        <v>2.2171874999999996</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B175">
         <v>3.3</v>
@@ -6143,10 +6146,10 @@
         <v>3.3</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F175">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G175">
         <v>3.3</v>
@@ -6158,112 +6161,112 @@
         <v>3.3</v>
       </c>
       <c r="J175">
-        <f t="shared" si="2"/>
-        <v>2.3332031249999998</v>
+        <f>((B175/256) + (C175/128) + (D175/64) + (E175/32) + (F175/16) + (G175/8) + (H175/4) + (I175/2))</f>
+        <v>2.2300781249999999</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="B176">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D176">
         <v>3.3</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F176">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G176">
         <v>3.3</v>
       </c>
       <c r="H176">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J176">
-        <f t="shared" si="2"/>
-        <v>1.5082031249999999</v>
+        <f>((B176/256) + (C176/128) + (D176/64) + (E176/32) + (F176/16) + (G176/8) + (H176/4) + (I176/2))</f>
+        <v>2.2429687499999997</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="B177">
         <v>3.3</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D177">
         <v>3.3</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F177">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G177">
         <v>3.3</v>
       </c>
       <c r="H177">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>3.3</v>
       </c>
       <c r="J177">
-        <f t="shared" si="2"/>
-        <v>3.158203125</v>
+        <f>((B177/256) + (C177/128) + (D177/64) + (E177/32) + (F177/16) + (G177/8) + (H177/4) + (I177/2))</f>
+        <v>2.255859375</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="B178">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C178">
         <v>0</v>
       </c>
       <c r="D178">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J178">
-        <f t="shared" si="2"/>
-        <v>0.16757812499999999</v>
+        <f>((B178/256) + (C178/128) + (D178/64) + (E178/32) + (F178/16) + (G178/8) + (H178/4) + (I178/2))</f>
+        <v>2.2687499999999998</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="B179">
         <v>3.3</v>
@@ -6272,16 +6275,16 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -6290,82 +6293,82 @@
         <v>3.3</v>
       </c>
       <c r="J179">
-        <f t="shared" si="2"/>
-        <v>1.8175781249999998</v>
+        <f>((B179/256) + (C179/128) + (D179/64) + (E179/32) + (F179/16) + (G179/8) + (H179/4) + (I179/2))</f>
+        <v>2.2816406249999996</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="B180">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D180">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E180">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H180">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J180">
-        <f t="shared" si="2"/>
-        <v>0.99257812499999998</v>
+        <f>((B180/256) + (C180/128) + (D180/64) + (E180/32) + (F180/16) + (G180/8) + (H180/4) + (I180/2))</f>
+        <v>2.2945312499999999</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="B181">
         <v>3.3</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D181">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E181">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H181">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>3.3</v>
       </c>
       <c r="J181">
-        <f t="shared" si="2"/>
-        <v>2.642578125</v>
+        <f>((B181/256) + (C181/128) + (D181/64) + (E181/32) + (F181/16) + (G181/8) + (H181/4) + (I181/2))</f>
+        <v>2.3074218749999997</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="B182">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -6374,10 +6377,10 @@
         <v>3.3</v>
       </c>
       <c r="E182">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G182">
         <v>3.3</v>
@@ -6386,16 +6389,16 @@
         <v>0</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J182">
-        <f t="shared" si="2"/>
-        <v>0.580078125</v>
+        <f>((B182/256) + (C182/128) + (D182/64) + (E182/32) + (F182/16) + (G182/8) + (H182/4) + (I182/2))</f>
+        <v>2.3203125</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B183">
         <v>3.3</v>
@@ -6407,10 +6410,10 @@
         <v>3.3</v>
       </c>
       <c r="E183">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G183">
         <v>3.3</v>
@@ -6422,88 +6425,88 @@
         <v>3.3</v>
       </c>
       <c r="J183">
-        <f t="shared" si="2"/>
-        <v>2.2300781249999999</v>
+        <f>((B183/256) + (C183/128) + (D183/64) + (E183/32) + (F183/16) + (G183/8) + (H183/4) + (I183/2))</f>
+        <v>2.3332031249999998</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="B184">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D184">
         <v>3.3</v>
       </c>
       <c r="E184">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G184">
         <v>3.3</v>
       </c>
       <c r="H184">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J184">
-        <f t="shared" si="2"/>
-        <v>1.405078125</v>
+        <f>((B184/256) + (C184/128) + (D184/64) + (E184/32) + (F184/16) + (G184/8) + (H184/4) + (I184/2))</f>
+        <v>2.3460937499999996</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="B185">
         <v>3.3</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D185">
         <v>3.3</v>
       </c>
       <c r="E185">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G185">
         <v>3.3</v>
       </c>
       <c r="H185">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>3.3</v>
       </c>
       <c r="J185">
-        <f t="shared" si="2"/>
-        <v>3.0550781249999996</v>
+        <f>((B185/256) + (C185/128) + (D185/64) + (E185/32) + (F185/16) + (G185/8) + (H185/4) + (I185/2))</f>
+        <v>2.3589843749999999</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="B186">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C186">
         <v>0</v>
       </c>
       <c r="D186">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E186">
         <v>3.3</v>
@@ -6512,22 +6515,22 @@
         <v>3.3</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J186">
-        <f t="shared" si="2"/>
-        <v>0.37382812499999996</v>
+        <f>((B186/256) + (C186/128) + (D186/64) + (E186/32) + (F186/16) + (G186/8) + (H186/4) + (I186/2))</f>
+        <v>2.3718749999999997</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="B187">
         <v>3.3</v>
@@ -6536,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E187">
         <v>3.3</v>
@@ -6545,7 +6548,7 @@
         <v>3.3</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -6554,22 +6557,22 @@
         <v>3.3</v>
       </c>
       <c r="J187">
-        <f t="shared" si="2"/>
-        <v>2.0238281249999996</v>
+        <f>((B187/256) + (C187/128) + (D187/64) + (E187/32) + (F187/16) + (G187/8) + (H187/4) + (I187/2))</f>
+        <v>2.384765625</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="B188">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D188">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E188">
         <v>3.3</v>
@@ -6578,31 +6581,31 @@
         <v>3.3</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H188">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J188">
-        <f t="shared" si="2"/>
-        <v>1.1988281249999999</v>
+        <f>((B188/256) + (C188/128) + (D188/64) + (E188/32) + (F188/16) + (G188/8) + (H188/4) + (I188/2))</f>
+        <v>2.3976562499999998</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="B189">
         <v>3.3</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D189">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E189">
         <v>3.3</v>
@@ -6611,25 +6614,25 @@
         <v>3.3</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H189">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I189">
         <v>3.3</v>
       </c>
       <c r="J189">
-        <f t="shared" si="2"/>
-        <v>2.8488281249999998</v>
+        <f>((B189/256) + (C189/128) + (D189/64) + (E189/32) + (F189/16) + (G189/8) + (H189/4) + (I189/2))</f>
+        <v>2.4105468749999996</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="B190">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -6650,11 +6653,11 @@
         <v>0</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J190">
-        <f t="shared" si="2"/>
-        <v>0.78632812499999993</v>
+        <f>((B190/256) + (C190/128) + (D190/64) + (E190/32) + (F190/16) + (G190/8) + (H190/4) + (I190/2))</f>
+        <v>2.4234374999999999</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -6686,19 +6689,19 @@
         <v>3.3</v>
       </c>
       <c r="J191">
-        <f t="shared" si="2"/>
+        <f>((B191/256) + (C191/128) + (D191/64) + (E191/32) + (F191/16) + (G191/8) + (H191/4) + (I191/2))</f>
         <v>2.4363281249999997</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="B192">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D192">
         <v>3.3</v>
@@ -6713,25 +6716,25 @@
         <v>3.3</v>
       </c>
       <c r="H192">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J192">
-        <f t="shared" si="2"/>
-        <v>1.611328125</v>
+        <f>((B192/256) + (C192/128) + (D192/64) + (E192/32) + (F192/16) + (G192/8) + (H192/4) + (I192/2))</f>
+        <v>2.44921875</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="B193">
         <v>3.3</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D193">
         <v>3.3</v>
@@ -6746,25 +6749,25 @@
         <v>3.3</v>
       </c>
       <c r="H193">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>3.3</v>
       </c>
       <c r="J193">
-        <f t="shared" si="2"/>
-        <v>3.2613281249999999</v>
+        <f>((B193/256) + (C193/128) + (D193/64) + (E193/32) + (F193/16) + (G193/8) + (H193/4) + (I193/2))</f>
+        <v>2.4621093749999998</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="B194">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C194">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -6779,25 +6782,25 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J194">
-        <f t="shared" si="2"/>
-        <v>3.8671874999999994E-2</v>
+        <f>((B194/256) + (C194/128) + (D194/64) + (E194/32) + (F194/16) + (G194/8) + (H194/4) + (I194/2))</f>
+        <v>2.4749999999999996</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="B195">
         <v>3.3</v>
       </c>
       <c r="C195">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -6812,22 +6815,22 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I195">
         <v>3.3</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J257" si="3">((B195/256) + (C195/128) + (D195/64) + (E195/32) + (F195/16) + (G195/8) + (H195/4) + (I195/2))</f>
-        <v>1.6886718749999998</v>
+        <f>((B195/256) + (C195/128) + (D195/64) + (E195/32) + (F195/16) + (G195/8) + (H195/4) + (I195/2))</f>
+        <v>2.4878906249999999</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="B196">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C196">
         <v>3.3</v>
@@ -6848,11 +6851,11 @@
         <v>3.3</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J196">
-        <f t="shared" si="3"/>
-        <v>0.86367187499999998</v>
+        <f>((B196/256) + (C196/128) + (D196/64) + (E196/32) + (F196/16) + (G196/8) + (H196/4) + (I196/2))</f>
+        <v>2.5007812499999997</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -6884,22 +6887,22 @@
         <v>3.3</v>
       </c>
       <c r="J197">
-        <f t="shared" si="3"/>
+        <f>((B197/256) + (C197/128) + (D197/64) + (E197/32) + (F197/16) + (G197/8) + (H197/4) + (I197/2))</f>
         <v>2.513671875</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="B198">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C198">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -6908,31 +6911,31 @@
         <v>0</v>
       </c>
       <c r="G198">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J198">
-        <f t="shared" si="3"/>
-        <v>0.451171875</v>
+        <f>((B198/256) + (C198/128) + (D198/64) + (E198/32) + (F198/16) + (G198/8) + (H198/4) + (I198/2))</f>
+        <v>2.5265624999999998</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="B199">
         <v>3.3</v>
       </c>
       <c r="C199">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -6941,31 +6944,31 @@
         <v>0</v>
       </c>
       <c r="G199">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I199">
         <v>3.3</v>
       </c>
       <c r="J199">
-        <f t="shared" si="3"/>
-        <v>2.1011718749999999</v>
+        <f>((B199/256) + (C199/128) + (D199/64) + (E199/32) + (F199/16) + (G199/8) + (H199/4) + (I199/2))</f>
+        <v>2.5394531249999996</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="B200">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C200">
         <v>3.3</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -6974,22 +6977,22 @@
         <v>0</v>
       </c>
       <c r="G200">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H200">
         <v>3.3</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J200">
-        <f t="shared" si="3"/>
-        <v>1.276171875</v>
+        <f>((B200/256) + (C200/128) + (D200/64) + (E200/32) + (F200/16) + (G200/8) + (H200/4) + (I200/2))</f>
+        <v>2.5523437499999999</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="B201">
         <v>3.3</v>
@@ -6998,7 +7001,7 @@
         <v>3.3</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -7007,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="G201">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <v>3.3</v>
@@ -7016,82 +7019,82 @@
         <v>3.3</v>
       </c>
       <c r="J201">
-        <f t="shared" si="3"/>
-        <v>2.9261718749999996</v>
+        <f>((B201/256) + (C201/128) + (D201/64) + (E201/32) + (F201/16) + (G201/8) + (H201/4) + (I201/2))</f>
+        <v>2.5652343749999997</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="B202">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C202">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F202">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J202">
-        <f t="shared" si="3"/>
-        <v>0.24492187499999998</v>
+        <f>((B202/256) + (C202/128) + (D202/64) + (E202/32) + (F202/16) + (G202/8) + (H202/4) + (I202/2))</f>
+        <v>2.578125</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="B203">
         <v>3.3</v>
       </c>
       <c r="C203">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F203">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I203">
         <v>3.3</v>
       </c>
       <c r="J203">
-        <f t="shared" si="3"/>
-        <v>1.8949218749999999</v>
+        <f>((B203/256) + (C203/128) + (D203/64) + (E203/32) + (F203/16) + (G203/8) + (H203/4) + (I203/2))</f>
+        <v>2.5910156249999998</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="B204">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C204">
         <v>3.3</v>
@@ -7100,10 +7103,10 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F204">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -7112,16 +7115,16 @@
         <v>3.3</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J204">
-        <f t="shared" si="3"/>
-        <v>1.0699218749999999</v>
+        <f>((B204/256) + (C204/128) + (D204/64) + (E204/32) + (F204/16) + (G204/8) + (H204/4) + (I204/2))</f>
+        <v>2.6039062499999996</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B205">
         <v>3.3</v>
@@ -7133,10 +7136,10 @@
         <v>0</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F205">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -7148,112 +7151,112 @@
         <v>3.3</v>
       </c>
       <c r="J205">
-        <f t="shared" si="3"/>
-        <v>2.7199218749999998</v>
+        <f>((B205/256) + (C205/128) + (D205/64) + (E205/32) + (F205/16) + (G205/8) + (H205/4) + (I205/2))</f>
+        <v>2.6167968749999999</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="B206">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C206">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F206">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G206">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J206">
-        <f t="shared" si="3"/>
-        <v>0.65742187499999993</v>
+        <f>((B206/256) + (C206/128) + (D206/64) + (E206/32) + (F206/16) + (G206/8) + (H206/4) + (I206/2))</f>
+        <v>2.6296874999999997</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B207">
         <v>3.3</v>
       </c>
       <c r="C207">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F207">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I207">
         <v>3.3</v>
       </c>
       <c r="J207">
-        <f t="shared" si="3"/>
-        <v>2.3074218749999997</v>
+        <f>((B207/256) + (C207/128) + (D207/64) + (E207/32) + (F207/16) + (G207/8) + (H207/4) + (I207/2))</f>
+        <v>2.642578125</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="B208">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C208">
         <v>3.3</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F208">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G208">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>3.3</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J208">
-        <f t="shared" si="3"/>
-        <v>1.482421875</v>
+        <f>((B208/256) + (C208/128) + (D208/64) + (E208/32) + (F208/16) + (G208/8) + (H208/4) + (I208/2))</f>
+        <v>2.6554687499999998</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="B209">
         <v>3.3</v>
@@ -7262,16 +7265,16 @@
         <v>3.3</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F209">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G209">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H209">
         <v>3.3</v>
@@ -7280,82 +7283,82 @@
         <v>3.3</v>
       </c>
       <c r="J209">
-        <f t="shared" si="3"/>
-        <v>3.1324218749999999</v>
+        <f>((B209/256) + (C209/128) + (D209/64) + (E209/32) + (F209/16) + (G209/8) + (H209/4) + (I209/2))</f>
+        <v>2.6683593749999996</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="B210">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C210">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G210">
         <v>0</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J210">
-        <f t="shared" si="3"/>
-        <v>0.14179687499999999</v>
+        <f>((B210/256) + (C210/128) + (D210/64) + (E210/32) + (F210/16) + (G210/8) + (H210/4) + (I210/2))</f>
+        <v>2.6812499999999999</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="B211">
         <v>3.3</v>
       </c>
       <c r="C211">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G211">
         <v>0</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I211">
         <v>3.3</v>
       </c>
       <c r="J211">
-        <f t="shared" si="3"/>
-        <v>1.791796875</v>
+        <f>((B211/256) + (C211/128) + (D211/64) + (E211/32) + (F211/16) + (G211/8) + (H211/4) + (I211/2))</f>
+        <v>2.6941406249999997</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="B212">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C212">
         <v>3.3</v>
@@ -7364,10 +7367,10 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -7376,16 +7379,16 @@
         <v>3.3</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J212">
-        <f t="shared" si="3"/>
-        <v>0.966796875</v>
+        <f>((B212/256) + (C212/128) + (D212/64) + (E212/32) + (F212/16) + (G212/8) + (H212/4) + (I212/2))</f>
+        <v>2.70703125</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B213">
         <v>3.3</v>
@@ -7397,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="E213">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -7412,112 +7415,112 @@
         <v>3.3</v>
       </c>
       <c r="J213">
-        <f t="shared" si="3"/>
-        <v>2.6167968749999999</v>
+        <f>((B213/256) + (C213/128) + (D213/64) + (E213/32) + (F213/16) + (G213/8) + (H213/4) + (I213/2))</f>
+        <v>2.7199218749999998</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="B214">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E214">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G214">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J214">
-        <f t="shared" si="3"/>
-        <v>0.55429687499999991</v>
+        <f>((B214/256) + (C214/128) + (D214/64) + (E214/32) + (F214/16) + (G214/8) + (H214/4) + (I214/2))</f>
+        <v>2.7328124999999996</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="B215">
         <v>3.3</v>
       </c>
       <c r="C215">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E215">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G215">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I215">
         <v>3.3</v>
       </c>
       <c r="J215">
-        <f t="shared" si="3"/>
-        <v>2.2042968749999998</v>
+        <f>((B215/256) + (C215/128) + (D215/64) + (E215/32) + (F215/16) + (G215/8) + (H215/4) + (I215/2))</f>
+        <v>2.7457031249999999</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="B216">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C216">
         <v>3.3</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E216">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G216">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H216">
         <v>3.3</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J216">
-        <f t="shared" si="3"/>
-        <v>1.3792968749999999</v>
+        <f>((B216/256) + (C216/128) + (D216/64) + (E216/32) + (F216/16) + (G216/8) + (H216/4) + (I216/2))</f>
+        <v>2.7585937499999997</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="B217">
         <v>3.3</v>
@@ -7526,16 +7529,16 @@
         <v>3.3</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E217">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G217">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H217">
         <v>3.3</v>
@@ -7544,19 +7547,19 @@
         <v>3.3</v>
       </c>
       <c r="J217">
-        <f t="shared" si="3"/>
-        <v>3.029296875</v>
+        <f>((B217/256) + (C217/128) + (D217/64) + (E217/32) + (F217/16) + (G217/8) + (H217/4) + (I217/2))</f>
+        <v>2.771484375</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="B218">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C218">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -7571,25 +7574,25 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J218">
-        <f t="shared" si="3"/>
-        <v>0.34804687499999998</v>
+        <f>((B218/256) + (C218/128) + (D218/64) + (E218/32) + (F218/16) + (G218/8) + (H218/4) + (I218/2))</f>
+        <v>2.7843749999999998</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="B219">
         <v>3.3</v>
       </c>
       <c r="C219">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -7604,22 +7607,22 @@
         <v>0</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I219">
         <v>3.3</v>
       </c>
       <c r="J219">
-        <f t="shared" si="3"/>
-        <v>1.998046875</v>
+        <f>((B219/256) + (C219/128) + (D219/64) + (E219/32) + (F219/16) + (G219/8) + (H219/4) + (I219/2))</f>
+        <v>2.7972656249999996</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="B220">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C220">
         <v>3.3</v>
@@ -7640,11 +7643,11 @@
         <v>3.3</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J220">
-        <f t="shared" si="3"/>
-        <v>1.1730468749999998</v>
+        <f>((B220/256) + (C220/128) + (D220/64) + (E220/32) + (F220/16) + (G220/8) + (H220/4) + (I220/2))</f>
+        <v>2.8101562499999999</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -7676,22 +7679,22 @@
         <v>3.3</v>
       </c>
       <c r="J221">
-        <f t="shared" si="3"/>
+        <f>((B221/256) + (C221/128) + (D221/64) + (E221/32) + (F221/16) + (G221/8) + (H221/4) + (I221/2))</f>
         <v>2.8230468749999997</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="B222">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C222">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E222">
         <v>3.3</v>
@@ -7700,31 +7703,31 @@
         <v>3.3</v>
       </c>
       <c r="G222">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J222">
-        <f t="shared" si="3"/>
-        <v>0.76054687499999996</v>
+        <f>((B222/256) + (C222/128) + (D222/64) + (E222/32) + (F222/16) + (G222/8) + (H222/4) + (I222/2))</f>
+        <v>2.8359375</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="B223">
         <v>3.3</v>
       </c>
       <c r="C223">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E223">
         <v>3.3</v>
@@ -7733,31 +7736,31 @@
         <v>3.3</v>
       </c>
       <c r="G223">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I223">
         <v>3.3</v>
       </c>
       <c r="J223">
-        <f t="shared" si="3"/>
-        <v>2.4105468749999996</v>
+        <f>((B223/256) + (C223/128) + (D223/64) + (E223/32) + (F223/16) + (G223/8) + (H223/4) + (I223/2))</f>
+        <v>2.8488281249999998</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="B224">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C224">
         <v>3.3</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E224">
         <v>3.3</v>
@@ -7766,22 +7769,22 @@
         <v>3.3</v>
       </c>
       <c r="G224">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>3.3</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J224">
-        <f t="shared" si="3"/>
-        <v>1.5855468749999999</v>
+        <f>((B224/256) + (C224/128) + (D224/64) + (E224/32) + (F224/16) + (G224/8) + (H224/4) + (I224/2))</f>
+        <v>2.8617187499999996</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="B225">
         <v>3.3</v>
@@ -7790,7 +7793,7 @@
         <v>3.3</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E225">
         <v>3.3</v>
@@ -7799,7 +7802,7 @@
         <v>3.3</v>
       </c>
       <c r="G225">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H225">
         <v>3.3</v>
@@ -7808,22 +7811,22 @@
         <v>3.3</v>
       </c>
       <c r="J225">
-        <f t="shared" si="3"/>
-        <v>3.2355468749999998</v>
+        <f>((B225/256) + (C225/128) + (D225/64) + (E225/32) + (F225/16) + (G225/8) + (H225/4) + (I225/2))</f>
+        <v>2.8746093749999999</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="B226">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C226">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D226">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -7832,31 +7835,31 @@
         <v>0</v>
       </c>
       <c r="G226">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J226">
-        <f t="shared" si="3"/>
-        <v>9.0234374999999992E-2</v>
+        <f>((B226/256) + (C226/128) + (D226/64) + (E226/32) + (F226/16) + (G226/8) + (H226/4) + (I226/2))</f>
+        <v>2.8874999999999997</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="B227">
         <v>3.3</v>
       </c>
       <c r="C227">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D227">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -7865,31 +7868,31 @@
         <v>0</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I227">
         <v>3.3</v>
       </c>
       <c r="J227">
-        <f t="shared" si="3"/>
-        <v>1.740234375</v>
+        <f>((B227/256) + (C227/128) + (D227/64) + (E227/32) + (F227/16) + (G227/8) + (H227/4) + (I227/2))</f>
+        <v>2.900390625</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="B228">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C228">
         <v>3.3</v>
       </c>
       <c r="D228">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -7898,22 +7901,22 @@
         <v>0</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H228">
         <v>3.3</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J228">
-        <f t="shared" si="3"/>
-        <v>0.91523437499999993</v>
+        <f>((B228/256) + (C228/128) + (D228/64) + (E228/32) + (F228/16) + (G228/8) + (H228/4) + (I228/2))</f>
+        <v>2.9132812499999998</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="B229">
         <v>3.3</v>
@@ -7922,7 +7925,7 @@
         <v>3.3</v>
       </c>
       <c r="D229">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -7931,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="G229">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H229">
         <v>3.3</v>
@@ -7940,19 +7943,19 @@
         <v>3.3</v>
       </c>
       <c r="J229">
-        <f t="shared" si="3"/>
-        <v>2.5652343749999997</v>
+        <f>((B229/256) + (C229/128) + (D229/64) + (E229/32) + (F229/16) + (G229/8) + (H229/4) + (I229/2))</f>
+        <v>2.9261718749999996</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="B230">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C230">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D230">
         <v>3.3</v>
@@ -7967,25 +7970,25 @@
         <v>3.3</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J230">
-        <f t="shared" si="3"/>
-        <v>0.50273437499999996</v>
+        <f>((B230/256) + (C230/128) + (D230/64) + (E230/32) + (F230/16) + (G230/8) + (H230/4) + (I230/2))</f>
+        <v>2.9390624999999999</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="B231">
         <v>3.3</v>
       </c>
       <c r="C231">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D231">
         <v>3.3</v>
@@ -8000,22 +8003,22 @@
         <v>3.3</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I231">
         <v>3.3</v>
       </c>
       <c r="J231">
-        <f t="shared" si="3"/>
-        <v>2.1527343749999996</v>
+        <f>((B231/256) + (C231/128) + (D231/64) + (E231/32) + (F231/16) + (G231/8) + (H231/4) + (I231/2))</f>
+        <v>2.9519531249999997</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="B232">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C232">
         <v>3.3</v>
@@ -8036,11 +8039,11 @@
         <v>3.3</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J232">
-        <f t="shared" si="3"/>
-        <v>1.3277343749999999</v>
+        <f>((B232/256) + (C232/128) + (D232/64) + (E232/32) + (F232/16) + (G232/8) + (H232/4) + (I232/2))</f>
+        <v>2.96484375</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -8072,112 +8075,112 @@
         <v>3.3</v>
       </c>
       <c r="J233">
-        <f t="shared" si="3"/>
+        <f>((B233/256) + (C233/128) + (D233/64) + (E233/32) + (F233/16) + (G233/8) + (H233/4) + (I233/2))</f>
         <v>2.9777343749999998</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="B234">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C234">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D234">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F234">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J234">
-        <f t="shared" si="3"/>
-        <v>0.29648437499999997</v>
+        <f>((B234/256) + (C234/128) + (D234/64) + (E234/32) + (F234/16) + (G234/8) + (H234/4) + (I234/2))</f>
+        <v>2.9906249999999996</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="B235">
         <v>3.3</v>
       </c>
       <c r="C235">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D235">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F235">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I235">
         <v>3.3</v>
       </c>
       <c r="J235">
-        <f t="shared" si="3"/>
-        <v>1.9464843749999998</v>
+        <f>((B235/256) + (C235/128) + (D235/64) + (E235/32) + (F235/16) + (G235/8) + (H235/4) + (I235/2))</f>
+        <v>3.0035156249999999</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="B236">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C236">
         <v>3.3</v>
       </c>
       <c r="D236">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F236">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H236">
         <v>3.3</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J236">
-        <f t="shared" si="3"/>
-        <v>1.1214843749999999</v>
+        <f>((B236/256) + (C236/128) + (D236/64) + (E236/32) + (F236/16) + (G236/8) + (H236/4) + (I236/2))</f>
+        <v>3.0164062499999997</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B237">
         <v>3.3</v>
@@ -8186,16 +8189,16 @@
         <v>3.3</v>
       </c>
       <c r="D237">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F237">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H237">
         <v>3.3</v>
@@ -8204,82 +8207,82 @@
         <v>3.3</v>
       </c>
       <c r="J237">
-        <f t="shared" si="3"/>
-        <v>2.771484375</v>
+        <f>((B237/256) + (C237/128) + (D237/64) + (E237/32) + (F237/16) + (G237/8) + (H237/4) + (I237/2))</f>
+        <v>3.029296875</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c r="B238">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C238">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D238">
         <v>3.3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F238">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G238">
         <v>3.3</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J238">
-        <f t="shared" si="3"/>
-        <v>0.708984375</v>
+        <f>((B238/256) + (C238/128) + (D238/64) + (E238/32) + (F238/16) + (G238/8) + (H238/4) + (I238/2))</f>
+        <v>3.0421874999999998</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="B239">
         <v>3.3</v>
       </c>
       <c r="C239">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D239">
         <v>3.3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F239">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G239">
         <v>3.3</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I239">
         <v>3.3</v>
       </c>
       <c r="J239">
-        <f t="shared" si="3"/>
-        <v>2.3589843749999999</v>
+        <f>((B239/256) + (C239/128) + (D239/64) + (E239/32) + (F239/16) + (G239/8) + (H239/4) + (I239/2))</f>
+        <v>3.0550781249999996</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="B240">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C240">
         <v>3.3</v>
@@ -8288,10 +8291,10 @@
         <v>3.3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F240">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G240">
         <v>3.3</v>
@@ -8300,16 +8303,16 @@
         <v>3.3</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J240">
-        <f t="shared" si="3"/>
-        <v>1.533984375</v>
+        <f>((B240/256) + (C240/128) + (D240/64) + (E240/32) + (F240/16) + (G240/8) + (H240/4) + (I240/2))</f>
+        <v>3.0679687499999999</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B241">
         <v>3.3</v>
@@ -8321,10 +8324,10 @@
         <v>3.3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F241">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G241">
         <v>3.3</v>
@@ -8336,112 +8339,112 @@
         <v>3.3</v>
       </c>
       <c r="J241">
-        <f t="shared" si="3"/>
-        <v>3.1839843749999996</v>
+        <f>((B241/256) + (C241/128) + (D241/64) + (E241/32) + (F241/16) + (G241/8) + (H241/4) + (I241/2))</f>
+        <v>3.0808593749999997</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="B242">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C242">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D242">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E242">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J242">
-        <f t="shared" si="3"/>
-        <v>0.193359375</v>
+        <f>((B242/256) + (C242/128) + (D242/64) + (E242/32) + (F242/16) + (G242/8) + (H242/4) + (I242/2))</f>
+        <v>3.09375</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="B243">
         <v>3.3</v>
       </c>
       <c r="C243">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D243">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E243">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G243">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I243">
         <v>3.3</v>
       </c>
       <c r="J243">
-        <f t="shared" si="3"/>
-        <v>1.8433593749999999</v>
+        <f>((B243/256) + (C243/128) + (D243/64) + (E243/32) + (F243/16) + (G243/8) + (H243/4) + (I243/2))</f>
+        <v>3.1066406249999998</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="B244">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C244">
         <v>3.3</v>
       </c>
       <c r="D244">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E244">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H244">
         <v>3.3</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J244">
-        <f t="shared" si="3"/>
-        <v>1.018359375</v>
+        <f>((B244/256) + (C244/128) + (D244/64) + (E244/32) + (F244/16) + (G244/8) + (H244/4) + (I244/2))</f>
+        <v>3.1195312499999996</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="B245">
         <v>3.3</v>
@@ -8450,16 +8453,16 @@
         <v>3.3</v>
       </c>
       <c r="D245">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E245">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H245">
         <v>3.3</v>
@@ -8468,82 +8471,82 @@
         <v>3.3</v>
       </c>
       <c r="J245">
-        <f t="shared" si="3"/>
-        <v>2.6683593749999996</v>
+        <f>((B245/256) + (C245/128) + (D245/64) + (E245/32) + (F245/16) + (G245/8) + (H245/4) + (I245/2))</f>
+        <v>3.1324218749999999</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="B246">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C246">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D246">
         <v>3.3</v>
       </c>
       <c r="E246">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G246">
         <v>3.3</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J246">
-        <f t="shared" si="3"/>
-        <v>0.60585937499999998</v>
+        <f>((B246/256) + (C246/128) + (D246/64) + (E246/32) + (F246/16) + (G246/8) + (H246/4) + (I246/2))</f>
+        <v>3.1453124999999997</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="B247">
         <v>3.3</v>
       </c>
       <c r="C247">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D247">
         <v>3.3</v>
       </c>
       <c r="E247">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G247">
         <v>3.3</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I247">
         <v>3.3</v>
       </c>
       <c r="J247">
-        <f t="shared" si="3"/>
-        <v>2.255859375</v>
+        <f>((B247/256) + (C247/128) + (D247/64) + (E247/32) + (F247/16) + (G247/8) + (H247/4) + (I247/2))</f>
+        <v>3.158203125</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>246</v>
+        <v>111</v>
       </c>
       <c r="B248">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C248">
         <v>3.3</v>
@@ -8552,10 +8555,10 @@
         <v>3.3</v>
       </c>
       <c r="E248">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G248">
         <v>3.3</v>
@@ -8564,16 +8567,16 @@
         <v>3.3</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J248">
-        <f t="shared" si="3"/>
-        <v>1.4308593749999998</v>
+        <f>((B248/256) + (C248/128) + (D248/64) + (E248/32) + (F248/16) + (G248/8) + (H248/4) + (I248/2))</f>
+        <v>3.1710937499999998</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B249">
         <v>3.3</v>
@@ -8585,10 +8588,10 @@
         <v>3.3</v>
       </c>
       <c r="E249">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G249">
         <v>3.3</v>
@@ -8600,22 +8603,22 @@
         <v>3.3</v>
       </c>
       <c r="J249">
-        <f t="shared" si="3"/>
-        <v>3.0808593749999997</v>
+        <f>((B249/256) + (C249/128) + (D249/64) + (E249/32) + (F249/16) + (G249/8) + (H249/4) + (I249/2))</f>
+        <v>3.1839843749999996</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="B250">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C250">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D250">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E250">
         <v>3.3</v>
@@ -8624,31 +8627,31 @@
         <v>3.3</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J250">
-        <f t="shared" si="3"/>
-        <v>0.39960937499999999</v>
+        <f>((B250/256) + (C250/128) + (D250/64) + (E250/32) + (F250/16) + (G250/8) + (H250/4) + (I250/2))</f>
+        <v>3.1968749999999999</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="B251">
         <v>3.3</v>
       </c>
       <c r="C251">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D251">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E251">
         <v>3.3</v>
@@ -8657,31 +8660,31 @@
         <v>3.3</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I251">
         <v>3.3</v>
       </c>
       <c r="J251">
-        <f t="shared" si="3"/>
-        <v>2.0496093749999997</v>
+        <f>((B251/256) + (C251/128) + (D251/64) + (E251/32) + (F251/16) + (G251/8) + (H251/4) + (I251/2))</f>
+        <v>3.2097656249999997</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="B252">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C252">
         <v>3.3</v>
       </c>
       <c r="D252">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E252">
         <v>3.3</v>
@@ -8690,22 +8693,22 @@
         <v>3.3</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H252">
         <v>3.3</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J252">
-        <f t="shared" si="3"/>
-        <v>1.224609375</v>
+        <f>((B252/256) + (C252/128) + (D252/64) + (E252/32) + (F252/16) + (G252/8) + (H252/4) + (I252/2))</f>
+        <v>3.22265625</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="B253">
         <v>3.3</v>
@@ -8714,7 +8717,7 @@
         <v>3.3</v>
       </c>
       <c r="D253">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E253">
         <v>3.3</v>
@@ -8723,7 +8726,7 @@
         <v>3.3</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H253">
         <v>3.3</v>
@@ -8732,19 +8735,19 @@
         <v>3.3</v>
       </c>
       <c r="J253">
-        <f t="shared" si="3"/>
-        <v>2.8746093749999999</v>
+        <f>((B253/256) + (C253/128) + (D253/64) + (E253/32) + (F253/16) + (G253/8) + (H253/4) + (I253/2))</f>
+        <v>3.2355468749999998</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>252</v>
+        <v>63</v>
       </c>
       <c r="B254">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C254">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D254">
         <v>3.3</v>
@@ -8759,25 +8762,25 @@
         <v>3.3</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J254">
-        <f t="shared" si="3"/>
-        <v>0.81210937499999991</v>
+        <f>((B254/256) + (C254/128) + (D254/64) + (E254/32) + (F254/16) + (G254/8) + (H254/4) + (I254/2))</f>
+        <v>3.2484374999999996</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="B255">
         <v>3.3</v>
       </c>
       <c r="C255">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D255">
         <v>3.3</v>
@@ -8792,22 +8795,22 @@
         <v>3.3</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I255">
         <v>3.3</v>
       </c>
       <c r="J255">
-        <f t="shared" si="3"/>
-        <v>2.4621093749999998</v>
+        <f>((B255/256) + (C255/128) + (D255/64) + (E255/32) + (F255/16) + (G255/8) + (H255/4) + (I255/2))</f>
+        <v>3.2613281249999999</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="B256">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="C256">
         <v>3.3</v>
@@ -8828,11 +8831,11 @@
         <v>3.3</v>
       </c>
       <c r="I256">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J256">
-        <f t="shared" si="3"/>
-        <v>1.6371093749999999</v>
+        <f>((B256/256) + (C256/128) + (D256/64) + (E256/32) + (F256/16) + (G256/8) + (H256/4) + (I256/2))</f>
+        <v>3.2742187499999997</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -8864,11 +8867,16 @@
         <v>3.3</v>
       </c>
       <c r="J257">
-        <f t="shared" si="3"/>
+        <f>((B257/256) + (C257/128) + (D257/64) + (E257/32) + (F257/16) + (G257/8) + (H257/4) + (I257/2))</f>
         <v>3.287109375</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1">
+    <sortState ref="A2:J257">
+      <sortCondition ref="J1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Project1/TruthTable8Bits.xlsx
+++ b/Project1/TruthTable8Bits.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>D0</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Vout</t>
+  </si>
+  <si>
+    <t>256 points</t>
+  </si>
+  <si>
+    <t>Measured</t>
   </si>
 </sst>
 </file>
@@ -2802,15 +2808,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J257"/>
+  <dimension ref="A1:M257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2841,8 +2850,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2874,8 +2889,16 @@
         <f>((B2/2) + (C2/4) + (D2/8) + (E2/16) + (F2/32) + (G2/64) + (H2/128) + (I2/256))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f t="shared" ref="K2:K65" si="0">1.65*SIN(2 * 3.14 * (J2/256)) + 1.65</f>
+        <v>1.65</v>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(COUNTIF($J$2:$J$257,K2)&gt;0, "Match", "No Match")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2904,11 +2927,19 @@
         <v>3.3</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="0">((B3/2) + (C3/4) + (D3/8) + (E3/16) + (F3/32) + (G3/64) + (H3/128) + (I3/256))</f>
+        <f t="shared" ref="J3:J66" si="1">((B3/2) + (C3/4) + (D3/8) + (E3/16) + (F3/32) + (G3/64) + (H3/128) + (I3/256))</f>
         <v>1.2890624999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>1.6505217681797806</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L66" si="2">IF(COUNTIF($J$2:$J$257,K3)&gt;0, "Match", "No Match")</f>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2937,11 +2968,19 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <f t="shared" si="1"/>
+        <v>2.5781249999999999E-2</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="0"/>
-        <v>2.5781249999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6510435363073859</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2970,11 +3009,19 @@
         <v>3.3</v>
       </c>
       <c r="J5">
+        <f t="shared" si="1"/>
+        <v>3.8671874999999994E-2</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
-        <v>3.8671874999999994E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6515653043306409</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3003,11 +3050,19 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <f t="shared" si="1"/>
+        <v>5.1562499999999997E-2</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
-        <v>5.1562499999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6520870721973697</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3036,11 +3091,19 @@
         <v>3.3</v>
       </c>
       <c r="J7">
+        <f t="shared" si="1"/>
+        <v>6.4453125E-2</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
-        <v>6.4453125E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6526088398553975</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3069,11 +3132,19 @@
         <v>0</v>
       </c>
       <c r="J8">
+        <f t="shared" si="1"/>
+        <v>7.7343749999999989E-2</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="0"/>
-        <v>7.7343749999999989E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6531306072525491</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3102,11 +3173,19 @@
         <v>3.3</v>
       </c>
       <c r="J9">
+        <f t="shared" si="1"/>
+        <v>9.0234374999999992E-2</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
-        <v>9.0234374999999992E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6536523743366489</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3135,11 +3214,19 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.10312499999999999</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.10312499999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6541741410555222</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3168,11 +3255,19 @@
         <v>3.3</v>
       </c>
       <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.116015625</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
-        <v>0.116015625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6546959073569933</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3201,11 +3296,19 @@
         <v>0</v>
       </c>
       <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.12890625</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
-        <v>0.12890625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6552176731888877</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3234,11 +3337,19 @@
         <v>3.3</v>
       </c>
       <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.14179687499999999</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="0"/>
-        <v>0.14179687499999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6557394384990298</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3267,11 +3378,19 @@
         <v>0</v>
       </c>
       <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.15468749999999998</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="0"/>
-        <v>0.15468749999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6562612032352448</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3300,11 +3419,19 @@
         <v>3.3</v>
       </c>
       <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.16757812499999997</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="0"/>
-        <v>0.16757812499999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.656782967345358</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3333,11 +3460,19 @@
         <v>0</v>
       </c>
       <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.18046874999999998</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="0"/>
-        <v>0.18046874999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6573047307771942</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3366,11 +3501,19 @@
         <v>3.3</v>
       </c>
       <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0.19335937499999997</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="0"/>
-        <v>0.19335937499999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6578264934785787</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3399,11 +3542,19 @@
         <v>0</v>
       </c>
       <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="0"/>
-        <v>0.20624999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6583482553973365</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3432,11 +3583,19 @@
         <v>3.3</v>
       </c>
       <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0.21914062499999998</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="0"/>
-        <v>0.21914062499999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6588700164812935</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3465,11 +3624,19 @@
         <v>0</v>
       </c>
       <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0.23203124999999999</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="0"/>
-        <v>0.23203124999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6593917766782746</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3498,11 +3665,19 @@
         <v>3.3</v>
       </c>
       <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0.24492187499999998</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="0"/>
-        <v>0.24492187499999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6599135359361055</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3531,11 +3706,19 @@
         <v>0</v>
       </c>
       <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0.2578125</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="0"/>
-        <v>0.2578125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6604352942026119</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3564,11 +3747,19 @@
         <v>3.3</v>
       </c>
       <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0.27070312499999999</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="0"/>
-        <v>0.27070312499999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6609570514256193</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3597,11 +3788,19 @@
         <v>0</v>
       </c>
       <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0.28359374999999998</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="0"/>
-        <v>0.28359374999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6614788075529536</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3630,11 +3829,19 @@
         <v>3.3</v>
       </c>
       <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0.29648437499999997</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="0"/>
-        <v>0.29648437499999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6620005625324408</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3663,11 +3870,19 @@
         <v>0</v>
       </c>
       <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0.30937499999999996</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="0"/>
-        <v>0.30937499999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6625223163119067</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3696,11 +3911,19 @@
         <v>3.3</v>
       </c>
       <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0.32226562499999994</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="0"/>
-        <v>0.32226562499999994</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6630440688391777</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3729,11 +3952,19 @@
         <v>0</v>
       </c>
       <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0.33515624999999993</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="0"/>
-        <v>0.33515624999999993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6635658200620798</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3762,11 +3993,19 @@
         <v>3.3</v>
       </c>
       <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0.34804687499999992</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="0"/>
-        <v>0.34804687499999992</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6640875699284396</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3795,11 +4034,19 @@
         <v>0</v>
       </c>
       <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0.36093749999999997</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="0"/>
-        <v>0.36093749999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6646093183860837</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3828,11 +4075,19 @@
         <v>3.3</v>
       </c>
       <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0.37382812499999996</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="0"/>
-        <v>0.37382812499999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6651310653828386</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3861,11 +4116,19 @@
         <v>0</v>
       </c>
       <c r="J32">
+        <f t="shared" si="1"/>
+        <v>0.38671874999999994</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="0"/>
-        <v>0.38671874999999994</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6656528108665312</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3894,11 +4157,19 @@
         <v>3.3</v>
       </c>
       <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0.39960937499999993</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="0"/>
-        <v>0.39960937499999993</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6661745547849884</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3927,11 +4198,19 @@
         <v>0</v>
       </c>
       <c r="J34">
+        <f t="shared" si="1"/>
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="0"/>
-        <v>0.41249999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6666962970860377</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3960,11 +4239,19 @@
         <v>3.3</v>
       </c>
       <c r="J35">
+        <f t="shared" si="1"/>
+        <v>0.42539062499999997</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="0"/>
-        <v>0.42539062499999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6672180377175059</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3993,11 +4280,19 @@
         <v>0</v>
       </c>
       <c r="J36">
+        <f t="shared" si="1"/>
+        <v>0.43828124999999996</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="0"/>
-        <v>0.43828124999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6677397766272206</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4026,11 +4321,19 @@
         <v>3.3</v>
       </c>
       <c r="J37">
+        <f t="shared" si="1"/>
+        <v>0.45117187499999994</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="0"/>
-        <v>0.45117187499999994</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6682615137630097</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4059,11 +4362,19 @@
         <v>0</v>
       </c>
       <c r="J38">
+        <f t="shared" si="1"/>
+        <v>0.46406249999999999</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="0"/>
-        <v>0.46406249999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6687832490727006</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4092,11 +4403,19 @@
         <v>3.3</v>
       </c>
       <c r="J39">
+        <f t="shared" si="1"/>
+        <v>0.47695312499999998</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="0"/>
-        <v>0.47695312499999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6693049825041215</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4125,11 +4444,19 @@
         <v>0</v>
       </c>
       <c r="J40">
+        <f t="shared" si="1"/>
+        <v>0.48984374999999997</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="0"/>
-        <v>0.48984374999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6698267140051009</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4158,11 +4485,19 @@
         <v>3.3</v>
       </c>
       <c r="J41">
+        <f t="shared" si="1"/>
+        <v>0.50273437499999996</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="0"/>
-        <v>0.50273437499999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6703484435234666</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4191,11 +4526,19 @@
         <v>0</v>
       </c>
       <c r="J42">
+        <f t="shared" si="1"/>
+        <v>0.515625</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="0"/>
-        <v>0.515625</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6708701710070475</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4224,11 +4567,19 @@
         <v>3.3</v>
       </c>
       <c r="J43">
+        <f t="shared" si="1"/>
+        <v>0.52851562500000004</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="0"/>
-        <v>0.52851562500000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6713918964036723</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4257,11 +4608,19 @@
         <v>0</v>
       </c>
       <c r="J44">
+        <f t="shared" si="1"/>
+        <v>0.54140624999999998</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="0"/>
-        <v>0.54140624999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6719136196611699</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4290,11 +4649,19 @@
         <v>3.3</v>
       </c>
       <c r="J45">
+        <f t="shared" si="1"/>
+        <v>0.55429687500000002</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="0"/>
-        <v>0.55429687500000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6724353407273698</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4323,11 +4690,19 @@
         <v>0</v>
       </c>
       <c r="J46">
+        <f t="shared" si="1"/>
+        <v>0.56718749999999996</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="0"/>
-        <v>0.56718749999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6729570595501011</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4356,11 +4731,19 @@
         <v>3.3</v>
       </c>
       <c r="J47">
+        <f t="shared" si="1"/>
+        <v>0.580078125</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="0"/>
-        <v>0.580078125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6734787760771936</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4389,11 +4772,19 @@
         <v>0</v>
       </c>
       <c r="J48">
+        <f t="shared" si="1"/>
+        <v>0.59296874999999993</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="0"/>
-        <v>0.59296874999999993</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6740004902564771</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4422,11 +4813,19 @@
         <v>3.3</v>
       </c>
       <c r="J49">
+        <f t="shared" si="1"/>
+        <v>0.60585937499999998</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="0"/>
-        <v>0.60585937499999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6745222020357819</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4455,11 +4854,19 @@
         <v>0</v>
       </c>
       <c r="J50">
+        <f t="shared" si="1"/>
+        <v>0.61874999999999991</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="0"/>
-        <v>0.61874999999999991</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6750439113629381</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4488,11 +4895,19 @@
         <v>3.3</v>
       </c>
       <c r="J51">
+        <f t="shared" si="1"/>
+        <v>0.63164062499999996</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="0"/>
-        <v>0.63164062499999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6755656181857763</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4521,11 +4936,19 @@
         <v>0</v>
       </c>
       <c r="J52">
+        <f t="shared" si="1"/>
+        <v>0.64453124999999989</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="0"/>
-        <v>0.64453124999999989</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6760873224521275</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4554,11 +4977,19 @@
         <v>3.3</v>
       </c>
       <c r="J53">
+        <f t="shared" si="1"/>
+        <v>0.65742187499999993</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="0"/>
-        <v>0.65742187499999993</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6766090241098228</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4587,11 +5018,19 @@
         <v>0</v>
       </c>
       <c r="J54">
+        <f t="shared" si="1"/>
+        <v>0.67031249999999987</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="0"/>
-        <v>0.67031249999999987</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6771307231066934</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4620,11 +5059,19 @@
         <v>3.3</v>
       </c>
       <c r="J55">
+        <f t="shared" si="1"/>
+        <v>0.68320312499999991</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="0"/>
-        <v>0.68320312499999991</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6776524193905711</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4653,11 +5100,19 @@
         <v>0</v>
       </c>
       <c r="J56">
+        <f t="shared" si="1"/>
+        <v>0.69609374999999984</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="0"/>
-        <v>0.69609374999999984</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6781741129092875</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4686,11 +5141,19 @@
         <v>3.3</v>
       </c>
       <c r="J57">
+        <f t="shared" si="1"/>
+        <v>0.70898437499999989</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="0"/>
-        <v>0.70898437499999989</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6786958036106752</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4719,11 +5182,19 @@
         <v>0</v>
       </c>
       <c r="J58">
+        <f t="shared" si="1"/>
+        <v>0.72187499999999993</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="0"/>
-        <v>0.72187499999999993</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6792174914425664</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4752,11 +5223,19 @@
         <v>3.3</v>
       </c>
       <c r="J59">
+        <f t="shared" si="1"/>
+        <v>0.73476562499999998</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="0"/>
-        <v>0.73476562499999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6797391763527938</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4785,11 +5264,19 @@
         <v>0</v>
       </c>
       <c r="J60">
+        <f t="shared" si="1"/>
+        <v>0.74765624999999991</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="0"/>
-        <v>0.74765624999999991</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6802608582891905</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4818,11 +5305,19 @@
         <v>3.3</v>
       </c>
       <c r="J61">
+        <f t="shared" si="1"/>
+        <v>0.76054687499999996</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="0"/>
-        <v>0.76054687499999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6807825371995899</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4851,11 +5346,19 @@
         <v>0</v>
       </c>
       <c r="J62">
+        <f t="shared" si="1"/>
+        <v>0.77343749999999989</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="0"/>
-        <v>0.77343749999999989</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6813042130318254</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4884,11 +5387,19 @@
         <v>3.3</v>
       </c>
       <c r="J63">
+        <f t="shared" si="1"/>
+        <v>0.78632812499999993</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="0"/>
-        <v>0.78632812499999993</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6818258857337314</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4917,11 +5428,19 @@
         <v>0</v>
       </c>
       <c r="J64">
+        <f t="shared" si="1"/>
+        <v>0.79921874999999987</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="0"/>
-        <v>0.79921874999999987</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6823475552531417</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4950,11 +5469,19 @@
         <v>3.3</v>
       </c>
       <c r="J65">
+        <f t="shared" si="1"/>
+        <v>0.81210937499999991</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="0"/>
-        <v>0.81210937499999991</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6828692215378911</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4983,11 +5510,19 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.82499999999999996</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <f t="shared" ref="K66:K129" si="3">1.65*SIN(2 * 3.14 * (J66/256)) + 1.65</f>
+        <v>1.6833908845358145</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5016,11 +5551,19 @@
         <v>3.3</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="1">((B67/2) + (C67/4) + (D67/8) + (E67/16) + (F67/32) + (G67/64) + (H67/128) + (I67/256))</f>
+        <f t="shared" ref="J67:J130" si="4">((B67/2) + (C67/4) + (D67/8) + (E67/16) + (F67/32) + (G67/64) + (H67/128) + (I67/256))</f>
         <v>0.837890625</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <f t="shared" si="3"/>
+        <v>1.6839125441947471</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:L130" si="5">IF(COUNTIF($J$2:$J$257,K67)&gt;0, "Match", "No Match")</f>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5049,11 +5592,19 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.85078124999999993</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>1.6844342004625243</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5082,11 +5633,19 @@
         <v>3.3</v>
       </c>
       <c r="J69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.86367187499999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>1.6849558532869822</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5115,11 +5674,19 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.87656249999999991</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>1.685477502615957</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5148,11 +5715,19 @@
         <v>3.3</v>
       </c>
       <c r="J71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.88945312499999996</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <f t="shared" si="3"/>
+        <v>1.6859991483972852</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5181,11 +5756,19 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.90234374999999989</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <f t="shared" si="3"/>
+        <v>1.6865207905788038</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5214,11 +5797,19 @@
         <v>3.3</v>
       </c>
       <c r="J73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.91523437499999993</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <f t="shared" si="3"/>
+        <v>1.6870424291083501</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5247,11 +5838,19 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.92812499999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <f t="shared" si="3"/>
+        <v>1.6875640639337619</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5280,11 +5879,19 @@
         <v>3.3</v>
       </c>
       <c r="J75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.94101562500000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <f t="shared" si="3"/>
+        <v>1.6880856950028771</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5313,11 +5920,19 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.95390624999999996</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <f t="shared" si="3"/>
+        <v>1.688607322263534</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5346,11 +5961,19 @@
         <v>3.3</v>
       </c>
       <c r="J77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.966796875</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <f t="shared" si="3"/>
+        <v>1.6891289456635716</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5379,11 +6002,19 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.97968749999999993</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <f t="shared" si="3"/>
+        <v>1.6896505651508291</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5412,11 +6043,19 @@
         <v>3.3</v>
       </c>
       <c r="J79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.99257812499999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <f t="shared" si="3"/>
+        <v>1.6901721806731462</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5445,11 +6084,19 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0054687499999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <f t="shared" si="3"/>
+        <v>1.6906937921783625</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5478,11 +6125,19 @@
         <v>3.3</v>
       </c>
       <c r="J81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.018359375</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <f t="shared" si="3"/>
+        <v>1.6912153996143184</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5511,11 +6166,19 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.03125</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <f t="shared" si="3"/>
+        <v>1.6917370029288552</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5544,11 +6207,19 @@
         <v>3.3</v>
       </c>
       <c r="J83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.044140625</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <f t="shared" si="3"/>
+        <v>1.6922586020698134</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5577,11 +6248,19 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0570312500000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <f t="shared" si="3"/>
+        <v>1.6927801969850351</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5610,11 +6289,19 @@
         <v>3.3</v>
       </c>
       <c r="J85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0699218750000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <f t="shared" si="3"/>
+        <v>1.6933017876223622</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5643,11 +6330,19 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0828125</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <f t="shared" si="3"/>
+        <v>1.6938233739296371</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5676,11 +6371,19 @@
         <v>3.3</v>
       </c>
       <c r="J87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.095703125</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <f t="shared" si="3"/>
+        <v>1.6943449558547026</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5709,11 +6412,19 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.10859375</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <f t="shared" si="3"/>
+        <v>1.6948665333454023</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5742,11 +6453,19 @@
         <v>3.3</v>
       </c>
       <c r="J89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.1214843750000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <f t="shared" si="3"/>
+        <v>1.6953881063495799</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5775,11 +6494,19 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.1343749999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <f t="shared" si="3"/>
+        <v>1.6959096748150795</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5808,11 +6535,19 @@
         <v>3.3</v>
       </c>
       <c r="J91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.147265625</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <f t="shared" si="3"/>
+        <v>1.6964312386897458</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5841,11 +6576,19 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.16015625</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <f t="shared" si="3"/>
+        <v>1.6969527979214241</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5874,11 +6617,19 @@
         <v>3.3</v>
       </c>
       <c r="J93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.173046875</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <f t="shared" si="3"/>
+        <v>1.6974743524579599</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5907,11 +6658,19 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.1859374999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <f t="shared" si="3"/>
+        <v>1.6979959022471991</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5940,11 +6699,19 @@
         <v>3.3</v>
       </c>
       <c r="J95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.1988281249999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <f t="shared" si="3"/>
+        <v>1.6985174472369884</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5973,11 +6740,19 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.21171875</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <f t="shared" si="3"/>
+        <v>1.699038987375175</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6006,11 +6781,19 @@
         <v>3.3</v>
       </c>
       <c r="J97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.224609375</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <f t="shared" si="3"/>
+        <v>1.699560522609606</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6039,11 +6822,22 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.2374999999999998</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <f t="shared" si="3"/>
+        <v>1.7000820528881297</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+      <c r="M98">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6072,11 +6866,19 @@
         <v>3.3</v>
       </c>
       <c r="J99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.2503906249999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <f t="shared" si="3"/>
+        <v>1.7006035781585946</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6105,11 +6907,19 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.2632812499999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <f t="shared" si="3"/>
+        <v>1.7011250983688497</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6138,11 +6948,19 @@
         <v>3.3</v>
       </c>
       <c r="J101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.276171875</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <f t="shared" si="3"/>
+        <v>1.7016466134667445</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6171,11 +6989,19 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.2890624999999998</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <f t="shared" si="3"/>
+        <v>1.7021681234001287</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6204,11 +7030,19 @@
         <v>3.3</v>
       </c>
       <c r="J103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.3019531249999998</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <f t="shared" si="3"/>
+        <v>1.7026896281168533</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6237,11 +7071,19 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.3148437499999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <f t="shared" si="3"/>
+        <v>1.703211127564769</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6270,11 +7112,19 @@
         <v>3.3</v>
       </c>
       <c r="J105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.3277343749999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <f t="shared" si="3"/>
+        <v>1.7037326216917275</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6303,11 +7153,19 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.3406249999999997</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <f t="shared" si="3"/>
+        <v>1.7042541104455811</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6336,11 +7194,19 @@
         <v>3.3</v>
       </c>
       <c r="J107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.3535156249999998</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <f t="shared" si="3"/>
+        <v>1.7047755937741822</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6369,11 +7235,19 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.3664062499999998</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <f t="shared" si="3"/>
+        <v>1.7052970716253839</v>
+      </c>
+      <c r="L108" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6402,11 +7276,19 @@
         <v>3.3</v>
       </c>
       <c r="J109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.3792968749999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <f t="shared" si="3"/>
+        <v>1.7058185439470404</v>
+      </c>
+      <c r="L109" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6435,11 +7317,19 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.3921874999999997</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <f t="shared" si="3"/>
+        <v>1.7063400106870055</v>
+      </c>
+      <c r="L110" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6468,11 +7358,19 @@
         <v>3.3</v>
       </c>
       <c r="J111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4050781249999997</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <f t="shared" si="3"/>
+        <v>1.7068614717931343</v>
+      </c>
+      <c r="L111" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6501,11 +7399,19 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4179687499999998</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <f t="shared" si="3"/>
+        <v>1.7073829272132821</v>
+      </c>
+      <c r="L112" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -6534,11 +7440,19 @@
         <v>3.3</v>
       </c>
       <c r="J113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4308593749999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <f t="shared" si="3"/>
+        <v>1.7079043768953051</v>
+      </c>
+      <c r="L113" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -6567,11 +7481,19 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4437499999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <f t="shared" si="3"/>
+        <v>1.7084258207870595</v>
+      </c>
+      <c r="L114" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -6600,11 +7522,19 @@
         <v>3.3</v>
       </c>
       <c r="J115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4566406249999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <f t="shared" si="3"/>
+        <v>1.7089472588364027</v>
+      </c>
+      <c r="L115" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -6633,11 +7563,19 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.46953125</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <f t="shared" si="3"/>
+        <v>1.7094686909911925</v>
+      </c>
+      <c r="L116" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -6666,11 +7604,19 @@
         <v>3.3</v>
       </c>
       <c r="J117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.482421875</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <f t="shared" si="3"/>
+        <v>1.7099901171992871</v>
+      </c>
+      <c r="L117" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -6699,11 +7645,19 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4953124999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <f t="shared" si="3"/>
+        <v>1.7105115374085453</v>
+      </c>
+      <c r="L118" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -6732,11 +7686,19 @@
         <v>3.3</v>
       </c>
       <c r="J119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5082031249999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <f t="shared" si="3"/>
+        <v>1.7110329515668266</v>
+      </c>
+      <c r="L119" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -6765,11 +7727,19 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5210937499999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <f t="shared" si="3"/>
+        <v>1.7115543596219913</v>
+      </c>
+      <c r="L120" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -6798,11 +7768,19 @@
         <v>3.3</v>
       </c>
       <c r="J121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.533984375</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <f t="shared" si="3"/>
+        <v>1.7120757615218998</v>
+      </c>
+      <c r="L121" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -6831,11 +7809,19 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5468749999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <f t="shared" si="3"/>
+        <v>1.7125971572144139</v>
+      </c>
+      <c r="L122" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -6864,11 +7850,19 @@
         <v>3.3</v>
       </c>
       <c r="J123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5597656249999998</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <f t="shared" si="3"/>
+        <v>1.713118546647395</v>
+      </c>
+      <c r="L123" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -6897,11 +7891,19 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5726562499999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124">
+        <f t="shared" si="3"/>
+        <v>1.7136399297687062</v>
+      </c>
+      <c r="L124" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -6930,11 +7932,19 @@
         <v>3.3</v>
       </c>
       <c r="J125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5855468749999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <f t="shared" si="3"/>
+        <v>1.7141613065262105</v>
+      </c>
+      <c r="L125" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -6963,11 +7973,19 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5984374999999997</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <f t="shared" si="3"/>
+        <v>1.7146826768677716</v>
+      </c>
+      <c r="L126" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -6996,11 +8014,19 @@
         <v>3.3</v>
       </c>
       <c r="J127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.6113281249999998</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <f t="shared" si="3"/>
+        <v>1.7152040407412541</v>
+      </c>
+      <c r="L127" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -7029,11 +8055,19 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.6242187499999998</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <f t="shared" si="3"/>
+        <v>1.7157253980945233</v>
+      </c>
+      <c r="L128" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -7062,11 +8096,19 @@
         <v>3.3</v>
       </c>
       <c r="J129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.6371093749999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <f t="shared" si="3"/>
+        <v>1.7162467488754449</v>
+      </c>
+      <c r="L129" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -7095,11 +8137,22 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.65</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <f t="shared" ref="K130:K193" si="6">1.65*SIN(2 * 3.14 * (J130/256)) + 1.65</f>
+        <v>1.7167680930318852</v>
+      </c>
+      <c r="L130" t="str">
+        <f t="shared" si="5"/>
+        <v>No Match</v>
+      </c>
+      <c r="M130">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -7128,11 +8181,19 @@
         <v>3.3</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="2">((B131/2) + (C131/4) + (D131/8) + (E131/16) + (F131/32) + (G131/64) + (H131/128) + (I131/256))</f>
+        <f t="shared" ref="J131:J194" si="7">((B131/2) + (C131/4) + (D131/8) + (E131/16) + (F131/32) + (G131/64) + (H131/128) + (I131/256))</f>
         <v>1.662890625</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <f t="shared" si="6"/>
+        <v>1.7172894305117115</v>
+      </c>
+      <c r="L131" t="str">
+        <f t="shared" ref="L131:L194" si="8">IF(COUNTIF($J$2:$J$257,K131)&gt;0, "Match", "No Match")</f>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -7161,11 +8222,19 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.67578125</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <f t="shared" si="6"/>
+        <v>1.7178107612627913</v>
+      </c>
+      <c r="L132" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -7194,11 +8263,19 @@
         <v>3.3</v>
       </c>
       <c r="J133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.688671875</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <f t="shared" si="6"/>
+        <v>1.7183320852329933</v>
+      </c>
+      <c r="L133" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -7227,11 +8304,19 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.7015624999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <f t="shared" si="6"/>
+        <v>1.7188534023701865</v>
+      </c>
+      <c r="L134" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -7260,11 +8345,19 @@
         <v>3.3</v>
       </c>
       <c r="J135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.7144531249999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <f t="shared" si="6"/>
+        <v>1.719374712622241</v>
+      </c>
+      <c r="L135" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -7293,11 +8386,19 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.72734375</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136">
+        <f t="shared" si="6"/>
+        <v>1.7198960159370269</v>
+      </c>
+      <c r="L136" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -7326,11 +8427,19 @@
         <v>3.3</v>
       </c>
       <c r="J137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.740234375</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <f t="shared" si="6"/>
+        <v>1.7204173122624156</v>
+      </c>
+      <c r="L137" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -7359,11 +8468,19 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.7531249999999998</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138">
+        <f t="shared" si="6"/>
+        <v>1.7209386015462789</v>
+      </c>
+      <c r="L138" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -7392,11 +8509,19 @@
         <v>3.3</v>
       </c>
       <c r="J139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.7660156249999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <f t="shared" si="6"/>
+        <v>1.7214598837364894</v>
+      </c>
+      <c r="L139" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -7425,11 +8550,19 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.7789062499999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <f t="shared" si="6"/>
+        <v>1.7219811587809206</v>
+      </c>
+      <c r="L140" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -7458,11 +8591,19 @@
         <v>3.3</v>
       </c>
       <c r="J141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.791796875</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <f t="shared" si="6"/>
+        <v>1.7225024266274462</v>
+      </c>
+      <c r="L141" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -7491,11 +8632,19 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.8046874999999998</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <f t="shared" si="6"/>
+        <v>1.7230236872239413</v>
+      </c>
+      <c r="L142" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -7524,11 +8673,19 @@
         <v>3.3</v>
       </c>
       <c r="J143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.8175781249999998</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <f t="shared" si="6"/>
+        <v>1.723544940518281</v>
+      </c>
+      <c r="L143" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -7557,11 +8714,19 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.8304687499999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <f t="shared" si="6"/>
+        <v>1.7240661864583418</v>
+      </c>
+      <c r="L144" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -7590,11 +8755,19 @@
         <v>3.3</v>
       </c>
       <c r="J145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.8433593749999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145">
+        <f t="shared" si="6"/>
+        <v>1.7245874249920006</v>
+      </c>
+      <c r="L145" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -7623,11 +8796,19 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.85625</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146">
+        <f t="shared" si="6"/>
+        <v>1.7251086560671347</v>
+      </c>
+      <c r="L146" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -7656,11 +8837,19 @@
         <v>3.3</v>
       </c>
       <c r="J147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.869140625</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147">
+        <f t="shared" si="6"/>
+        <v>1.725629879631623</v>
+      </c>
+      <c r="L147" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -7689,11 +8878,19 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.88203125</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <f t="shared" si="6"/>
+        <v>1.7261510956333443</v>
+      </c>
+      <c r="L148" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -7722,11 +8919,19 @@
         <v>3.3</v>
       </c>
       <c r="J149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.8949218750000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149">
+        <f t="shared" si="6"/>
+        <v>1.7266723040201788</v>
+      </c>
+      <c r="L149" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -7755,11 +8960,19 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.9078124999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150">
+        <f t="shared" si="6"/>
+        <v>1.7271935047400071</v>
+      </c>
+      <c r="L150" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -7788,11 +9001,19 @@
         <v>3.3</v>
       </c>
       <c r="J151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.920703125</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151">
+        <f t="shared" si="6"/>
+        <v>1.7277146977407105</v>
+      </c>
+      <c r="L151" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -7821,11 +9042,19 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.93359375</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152">
+        <f t="shared" si="6"/>
+        <v>1.7282358829701714</v>
+      </c>
+      <c r="L152" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -7854,11 +9083,19 @@
         <v>3.3</v>
       </c>
       <c r="J153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.946484375</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153">
+        <f t="shared" si="6"/>
+        <v>1.7287570603762727</v>
+      </c>
+      <c r="L153" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -7887,11 +9124,19 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.9593749999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154">
+        <f t="shared" si="6"/>
+        <v>1.7292782299068983</v>
+      </c>
+      <c r="L154" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -7920,11 +9165,19 @@
         <v>3.3</v>
       </c>
       <c r="J155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.9722656249999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155">
+        <f t="shared" si="6"/>
+        <v>1.7297993915099326</v>
+      </c>
+      <c r="L155" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -7953,11 +9206,19 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.98515625</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156">
+        <f t="shared" si="6"/>
+        <v>1.7303205451332611</v>
+      </c>
+      <c r="L156" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -7986,11 +9247,19 @@
         <v>3.3</v>
       </c>
       <c r="J157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.998046875</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157">
+        <f t="shared" si="6"/>
+        <v>1.7308416907247699</v>
+      </c>
+      <c r="L157" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -8019,11 +9288,19 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.0109374999999998</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K158">
+        <f t="shared" si="6"/>
+        <v>1.7313628282323461</v>
+      </c>
+      <c r="L158" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -8052,11 +9329,19 @@
         <v>3.3</v>
       </c>
       <c r="J159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.0238281249999996</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159">
+        <f t="shared" si="6"/>
+        <v>1.7318839576038771</v>
+      </c>
+      <c r="L159" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -8085,11 +9370,19 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.0367187499999999</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160">
+        <f t="shared" si="6"/>
+        <v>1.732405078787252</v>
+      </c>
+      <c r="L160" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -8118,11 +9411,19 @@
         <v>3.3</v>
       </c>
       <c r="J161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.0496093749999997</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161">
+        <f t="shared" si="6"/>
+        <v>1.7329261917303598</v>
+      </c>
+      <c r="L161" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -8151,11 +9452,19 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.0625</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162">
+        <f t="shared" si="6"/>
+        <v>1.733447296381091</v>
+      </c>
+      <c r="L162" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -8184,11 +9493,19 @@
         <v>3.3</v>
       </c>
       <c r="J163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.0753906249999998</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163">
+        <f t="shared" si="6"/>
+        <v>1.7339683926873364</v>
+      </c>
+      <c r="L163" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -8217,11 +9534,19 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.0882812500000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164">
+        <f t="shared" si="6"/>
+        <v>1.7344894805969882</v>
+      </c>
+      <c r="L164" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -8250,11 +9575,19 @@
         <v>3.3</v>
       </c>
       <c r="J165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.1011718749999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165">
+        <f t="shared" si="6"/>
+        <v>1.7350105600579389</v>
+      </c>
+      <c r="L165" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -8283,11 +9616,19 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.1140625000000002</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166">
+        <f t="shared" si="6"/>
+        <v>1.7355316310180819</v>
+      </c>
+      <c r="L166" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -8316,11 +9657,19 @@
         <v>3.3</v>
       </c>
       <c r="J167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.126953125</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167">
+        <f t="shared" si="6"/>
+        <v>1.7360526934253122</v>
+      </c>
+      <c r="L167" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -8349,11 +9698,19 @@
         <v>0</v>
       </c>
       <c r="J168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.1398437500000003</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168">
+        <f t="shared" si="6"/>
+        <v>1.7365737472275247</v>
+      </c>
+      <c r="L168" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -8382,11 +9739,19 @@
         <v>3.3</v>
       </c>
       <c r="J169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.1527343750000001</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169">
+        <f t="shared" si="6"/>
+        <v>1.7370947923726154</v>
+      </c>
+      <c r="L169" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -8415,11 +9780,19 @@
         <v>0</v>
       </c>
       <c r="J170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.1656249999999999</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170">
+        <f t="shared" si="6"/>
+        <v>1.7376158288084815</v>
+      </c>
+      <c r="L170" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -8448,11 +9821,19 @@
         <v>3.3</v>
       </c>
       <c r="J171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.1785156249999997</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171">
+        <f t="shared" si="6"/>
+        <v>1.7381368564830211</v>
+      </c>
+      <c r="L171" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -8481,11 +9862,19 @@
         <v>0</v>
       </c>
       <c r="J172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.19140625</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172">
+        <f t="shared" si="6"/>
+        <v>1.7386578753441326</v>
+      </c>
+      <c r="L172" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -8514,11 +9903,19 @@
         <v>3.3</v>
       </c>
       <c r="J173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.2042968749999998</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173">
+        <f t="shared" si="6"/>
+        <v>1.7391788853397159</v>
+      </c>
+      <c r="L173" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -8547,11 +9944,19 @@
         <v>0</v>
       </c>
       <c r="J174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.2171875000000001</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174">
+        <f t="shared" si="6"/>
+        <v>1.7396998864176711</v>
+      </c>
+      <c r="L174" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -8580,11 +9985,19 @@
         <v>3.3</v>
       </c>
       <c r="J175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.2300781249999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175">
+        <f t="shared" si="6"/>
+        <v>1.7402208785259001</v>
+      </c>
+      <c r="L175" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -8613,11 +10026,19 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.2429687500000002</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176">
+        <f t="shared" si="6"/>
+        <v>1.7407418616123052</v>
+      </c>
+      <c r="L176" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -8646,11 +10067,19 @@
         <v>3.3</v>
       </c>
       <c r="J177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.255859375</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K177">
+        <f t="shared" si="6"/>
+        <v>1.7412628356247892</v>
+      </c>
+      <c r="L177" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -8679,11 +10108,19 @@
         <v>0</v>
       </c>
       <c r="J178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.2687499999999998</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K178">
+        <f t="shared" si="6"/>
+        <v>1.7417838005112567</v>
+      </c>
+      <c r="L178" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -8712,11 +10149,19 @@
         <v>3.3</v>
       </c>
       <c r="J179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.2816406249999996</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K179">
+        <f t="shared" si="6"/>
+        <v>1.7423047562196121</v>
+      </c>
+      <c r="L179" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -8745,11 +10190,19 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.2945312499999999</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K180">
+        <f t="shared" si="6"/>
+        <v>1.742825702697762</v>
+      </c>
+      <c r="L180" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -8778,11 +10231,19 @@
         <v>3.3</v>
       </c>
       <c r="J181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.3074218749999997</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K181">
+        <f t="shared" si="6"/>
+        <v>1.743346639893613</v>
+      </c>
+      <c r="L181" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -8811,11 +10272,19 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.3203125</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K182">
+        <f t="shared" si="6"/>
+        <v>1.743867567755073</v>
+      </c>
+      <c r="L182" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -8844,11 +10313,19 @@
         <v>3.3</v>
       </c>
       <c r="J183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.3332031249999998</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K183">
+        <f t="shared" si="6"/>
+        <v>1.7443884862300507</v>
+      </c>
+      <c r="L183" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -8877,11 +10354,19 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.3460937500000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K184">
+        <f t="shared" si="6"/>
+        <v>1.7449093952664556</v>
+      </c>
+      <c r="L184" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -8910,11 +10395,19 @@
         <v>3.3</v>
       </c>
       <c r="J185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.3589843749999999</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185">
+        <f t="shared" si="6"/>
+        <v>1.7454302948121985</v>
+      </c>
+      <c r="L185" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -8943,11 +10436,19 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.3718749999999997</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K186">
+        <f t="shared" si="6"/>
+        <v>1.745951184815191</v>
+      </c>
+      <c r="L186" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -8976,11 +10477,19 @@
         <v>3.3</v>
       </c>
       <c r="J187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.3847656249999996</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K187">
+        <f t="shared" si="6"/>
+        <v>1.7464720652233454</v>
+      </c>
+      <c r="L187" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -9009,11 +10518,19 @@
         <v>0</v>
       </c>
       <c r="J188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.3976562499999998</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188">
+        <f t="shared" si="6"/>
+        <v>1.7469929359845755</v>
+      </c>
+      <c r="L188" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -9042,11 +10559,19 @@
         <v>3.3</v>
       </c>
       <c r="J189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.4105468749999996</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K189">
+        <f t="shared" si="6"/>
+        <v>1.7475137970467953</v>
+      </c>
+      <c r="L189" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -9075,11 +10600,19 @@
         <v>0</v>
       </c>
       <c r="J190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.4234374999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K190">
+        <f t="shared" si="6"/>
+        <v>1.7480346483579208</v>
+      </c>
+      <c r="L190" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -9108,11 +10641,19 @@
         <v>3.3</v>
       </c>
       <c r="J191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.4363281249999997</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191">
+        <f t="shared" si="6"/>
+        <v>1.748555489865868</v>
+      </c>
+      <c r="L191" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -9141,11 +10682,19 @@
         <v>0</v>
       </c>
       <c r="J192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.44921875</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192">
+        <f t="shared" si="6"/>
+        <v>1.7490763215185543</v>
+      </c>
+      <c r="L192" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -9174,11 +10723,19 @@
         <v>3.3</v>
       </c>
       <c r="J193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.4621093749999998</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K193">
+        <f t="shared" si="6"/>
+        <v>1.7495971432638981</v>
+      </c>
+      <c r="L193" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -9207,11 +10764,22 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.4749999999999996</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K194">
+        <f t="shared" ref="K194:K257" si="9">1.65*SIN(2 * 3.14 * (J194/256)) + 1.65</f>
+        <v>1.7501179550498189</v>
+      </c>
+      <c r="L194" t="str">
+        <f t="shared" si="8"/>
+        <v>No Match</v>
+      </c>
+      <c r="M194">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -9240,11 +10808,19 @@
         <v>3.3</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J257" si="3">((B195/2) + (C195/4) + (D195/8) + (E195/16) + (F195/32) + (G195/64) + (H195/128) + (I195/256))</f>
+        <f t="shared" ref="J195:J257" si="10">((B195/2) + (C195/4) + (D195/8) + (E195/16) + (F195/32) + (G195/64) + (H195/128) + (I195/256))</f>
         <v>2.4878906249999995</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K195">
+        <f t="shared" si="9"/>
+        <v>1.7506387568242368</v>
+      </c>
+      <c r="L195" t="str">
+        <f t="shared" ref="L195:L257" si="11">IF(COUNTIF($J$2:$J$257,K195)&gt;0, "Match", "No Match")</f>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -9273,11 +10849,19 @@
         <v>0</v>
       </c>
       <c r="J196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.5007812499999997</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K196">
+        <f t="shared" si="9"/>
+        <v>1.7511595485350733</v>
+      </c>
+      <c r="L196" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -9306,11 +10890,19 @@
         <v>3.3</v>
       </c>
       <c r="J197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.5136718749999996</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197">
+        <f t="shared" si="9"/>
+        <v>1.7516803301302508</v>
+      </c>
+      <c r="L197" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -9339,11 +10931,19 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.5265624999999998</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198">
+        <f t="shared" si="9"/>
+        <v>1.7522011015576924</v>
+      </c>
+      <c r="L198" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -9372,11 +10972,19 @@
         <v>3.3</v>
       </c>
       <c r="J199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.5394531249999996</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K199">
+        <f t="shared" si="9"/>
+        <v>1.7527218627653227</v>
+      </c>
+      <c r="L199" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -9405,11 +11013,19 @@
         <v>0</v>
       </c>
       <c r="J200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.5523437499999999</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K200">
+        <f t="shared" si="9"/>
+        <v>1.753242613701067</v>
+      </c>
+      <c r="L200" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -9438,11 +11054,19 @@
         <v>3.3</v>
       </c>
       <c r="J201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.5652343749999997</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K201">
+        <f t="shared" si="9"/>
+        <v>1.7537633543128519</v>
+      </c>
+      <c r="L201" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -9471,11 +11095,19 @@
         <v>0</v>
       </c>
       <c r="J202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.5781249999999996</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K202">
+        <f t="shared" si="9"/>
+        <v>1.7542840845486047</v>
+      </c>
+      <c r="L202" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -9504,11 +11136,19 @@
         <v>3.3</v>
       </c>
       <c r="J203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.5910156249999994</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203">
+        <f t="shared" si="9"/>
+        <v>1.7548048043562539</v>
+      </c>
+      <c r="L203" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -9537,11 +11177,19 @@
         <v>0</v>
       </c>
       <c r="J204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.6039062499999996</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K204">
+        <f t="shared" si="9"/>
+        <v>1.7553255136837291</v>
+      </c>
+      <c r="L204" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -9570,11 +11218,19 @@
         <v>3.3</v>
       </c>
       <c r="J205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.6167968749999995</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K205">
+        <f t="shared" si="9"/>
+        <v>1.7558462124789609</v>
+      </c>
+      <c r="L205" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -9603,11 +11259,19 @@
         <v>0</v>
       </c>
       <c r="J206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.6296874999999997</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K206">
+        <f t="shared" si="9"/>
+        <v>1.7563669006898808</v>
+      </c>
+      <c r="L206" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -9636,11 +11300,19 @@
         <v>3.3</v>
       </c>
       <c r="J207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.6425781249999996</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K207">
+        <f t="shared" si="9"/>
+        <v>1.7568875782644218</v>
+      </c>
+      <c r="L207" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -9669,11 +11341,19 @@
         <v>0</v>
       </c>
       <c r="J208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.6554687499999998</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208">
+        <f t="shared" si="9"/>
+        <v>1.7574082451505173</v>
+      </c>
+      <c r="L208" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -9702,11 +11382,19 @@
         <v>3.3</v>
       </c>
       <c r="J209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.6683593749999996</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209">
+        <f t="shared" si="9"/>
+        <v>1.7579289012961024</v>
+      </c>
+      <c r="L209" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -9735,11 +11423,19 @@
         <v>0</v>
       </c>
       <c r="J210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.6812499999999995</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K210">
+        <f t="shared" si="9"/>
+        <v>1.758449546649113</v>
+      </c>
+      <c r="L210" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -9768,11 +11464,19 @@
         <v>3.3</v>
       </c>
       <c r="J211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.6941406249999993</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211">
+        <f t="shared" si="9"/>
+        <v>1.7589701811574858</v>
+      </c>
+      <c r="L211" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -9801,11 +11505,19 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.7070312499999996</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212">
+        <f t="shared" si="9"/>
+        <v>1.7594908047691593</v>
+      </c>
+      <c r="L212" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -9834,11 +11546,19 @@
         <v>3.3</v>
       </c>
       <c r="J213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.7199218749999994</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213">
+        <f t="shared" si="9"/>
+        <v>1.7600114174320725</v>
+      </c>
+      <c r="L213" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -9867,11 +11587,19 @@
         <v>0</v>
       </c>
       <c r="J214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.7328124999999996</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K214">
+        <f t="shared" si="9"/>
+        <v>1.7605320190941653</v>
+      </c>
+      <c r="L214" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -9900,11 +11628,19 @@
         <v>3.3</v>
       </c>
       <c r="J215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.7457031249999995</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K215">
+        <f t="shared" si="9"/>
+        <v>1.7610526097033796</v>
+      </c>
+      <c r="L215" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -9933,11 +11669,19 @@
         <v>0</v>
       </c>
       <c r="J216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.7585937499999997</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K216">
+        <f t="shared" si="9"/>
+        <v>1.7615731892076574</v>
+      </c>
+      <c r="L216" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -9966,11 +11710,19 @@
         <v>3.3</v>
       </c>
       <c r="J217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.7714843749999996</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217">
+        <f t="shared" si="9"/>
+        <v>1.7620937575549427</v>
+      </c>
+      <c r="L217" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -9999,11 +11751,19 @@
         <v>0</v>
       </c>
       <c r="J218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.7843749999999994</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K218">
+        <f t="shared" si="9"/>
+        <v>1.7626143146931799</v>
+      </c>
+      <c r="L218" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -10032,11 +11792,19 @@
         <v>3.3</v>
       </c>
       <c r="J219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.7972656249999992</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K219">
+        <f t="shared" si="9"/>
+        <v>1.7631348605703148</v>
+      </c>
+      <c r="L219" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -10065,11 +11833,19 @@
         <v>0</v>
       </c>
       <c r="J220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.8101562499999995</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220">
+        <f t="shared" si="9"/>
+        <v>1.7636553951342944</v>
+      </c>
+      <c r="L220" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -10098,11 +11874,19 @@
         <v>3.3</v>
       </c>
       <c r="J221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.8230468749999993</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221">
+        <f t="shared" si="9"/>
+        <v>1.7641759183330668</v>
+      </c>
+      <c r="L221" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -10131,11 +11915,19 @@
         <v>0</v>
       </c>
       <c r="J222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.8359374999999996</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222">
+        <f t="shared" si="9"/>
+        <v>1.7646964301145813</v>
+      </c>
+      <c r="L222" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -10164,11 +11956,19 @@
         <v>3.3</v>
       </c>
       <c r="J223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.8488281249999994</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K223">
+        <f t="shared" si="9"/>
+        <v>1.765216930426788</v>
+      </c>
+      <c r="L223" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -10197,11 +11997,19 @@
         <v>0</v>
       </c>
       <c r="J224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.8617187499999996</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K224">
+        <f t="shared" si="9"/>
+        <v>1.7657374192176387</v>
+      </c>
+      <c r="L224" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -10230,11 +12038,19 @@
         <v>3.3</v>
       </c>
       <c r="J225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.8746093749999995</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K225">
+        <f t="shared" si="9"/>
+        <v>1.7662578964350857</v>
+      </c>
+      <c r="L225" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -10263,11 +12079,22 @@
         <v>0</v>
       </c>
       <c r="J226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.8874999999999997</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226">
+        <f t="shared" si="9"/>
+        <v>1.7667783620270829</v>
+      </c>
+      <c r="L226" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+      <c r="M226">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -10296,11 +12123,19 @@
         <v>3.3</v>
       </c>
       <c r="J227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.9003906249999996</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K227">
+        <f t="shared" si="9"/>
+        <v>1.7672988159415854</v>
+      </c>
+      <c r="L227" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -10329,11 +12164,19 @@
         <v>0</v>
       </c>
       <c r="J228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.9132812499999998</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K228">
+        <f t="shared" si="9"/>
+        <v>1.7678192581265493</v>
+      </c>
+      <c r="L228" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -10362,11 +12205,19 @@
         <v>3.3</v>
       </c>
       <c r="J229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.9261718749999996</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K229">
+        <f t="shared" si="9"/>
+        <v>1.7683396885299318</v>
+      </c>
+      <c r="L229" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -10395,11 +12246,19 @@
         <v>0</v>
       </c>
       <c r="J230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.9390624999999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K230">
+        <f t="shared" si="9"/>
+        <v>1.7688601070996914</v>
+      </c>
+      <c r="L230" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -10428,11 +12287,19 @@
         <v>3.3</v>
       </c>
       <c r="J231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.9519531249999997</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K231">
+        <f t="shared" si="9"/>
+        <v>1.7693805137837879</v>
+      </c>
+      <c r="L231" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -10461,11 +12328,19 @@
         <v>0</v>
       </c>
       <c r="J232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.96484375</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232">
+        <f t="shared" si="9"/>
+        <v>1.769900908530182</v>
+      </c>
+      <c r="L232" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -10494,11 +12369,19 @@
         <v>3.3</v>
       </c>
       <c r="J233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.9777343749999998</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K233">
+        <f t="shared" si="9"/>
+        <v>1.7704212912868358</v>
+      </c>
+      <c r="L233" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -10527,11 +12410,19 @@
         <v>0</v>
       </c>
       <c r="J234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2.9906249999999996</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K234">
+        <f t="shared" si="9"/>
+        <v>1.7709416620017127</v>
+      </c>
+      <c r="L234" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -10560,11 +12451,19 @@
         <v>3.3</v>
       </c>
       <c r="J235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.0035156249999995</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K235">
+        <f t="shared" si="9"/>
+        <v>1.7714620206227767</v>
+      </c>
+      <c r="L235" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -10593,11 +12492,19 @@
         <v>0</v>
       </c>
       <c r="J236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.0164062499999997</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K236">
+        <f t="shared" si="9"/>
+        <v>1.7719823670979939</v>
+      </c>
+      <c r="L236" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -10626,11 +12533,19 @@
         <v>3.3</v>
       </c>
       <c r="J237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.0292968749999996</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K237">
+        <f t="shared" si="9"/>
+        <v>1.7725027013753312</v>
+      </c>
+      <c r="L237" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -10659,11 +12574,19 @@
         <v>0</v>
       </c>
       <c r="J238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.0421874999999998</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K238">
+        <f t="shared" si="9"/>
+        <v>1.7730230234027564</v>
+      </c>
+      <c r="L238" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -10692,11 +12615,19 @@
         <v>3.3</v>
       </c>
       <c r="J239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.0550781249999996</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K239">
+        <f t="shared" si="9"/>
+        <v>1.7735433331282389</v>
+      </c>
+      <c r="L239" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -10725,11 +12656,19 @@
         <v>0</v>
       </c>
       <c r="J240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.0679687499999999</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K240">
+        <f t="shared" si="9"/>
+        <v>1.7740636304997492</v>
+      </c>
+      <c r="L240" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -10758,11 +12697,19 @@
         <v>3.3</v>
       </c>
       <c r="J241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.0808593749999997</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K241">
+        <f t="shared" si="9"/>
+        <v>1.7745839154652594</v>
+      </c>
+      <c r="L241" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -10791,11 +12738,19 @@
         <v>0</v>
       </c>
       <c r="J242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.0937499999999996</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K242">
+        <f t="shared" si="9"/>
+        <v>1.7751041879727421</v>
+      </c>
+      <c r="L242" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -10824,11 +12779,19 @@
         <v>3.3</v>
       </c>
       <c r="J243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.1066406249999994</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K243">
+        <f t="shared" si="9"/>
+        <v>1.7756244479701717</v>
+      </c>
+      <c r="L243" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -10857,11 +12820,19 @@
         <v>0</v>
       </c>
       <c r="J244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.1195312499999996</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K244">
+        <f t="shared" si="9"/>
+        <v>1.776144695405524</v>
+      </c>
+      <c r="L244" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -10890,11 +12861,19 @@
         <v>3.3</v>
       </c>
       <c r="J245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.1324218749999995</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K245">
+        <f t="shared" si="9"/>
+        <v>1.7766649302267754</v>
+      </c>
+      <c r="L245" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -10923,11 +12902,19 @@
         <v>0</v>
       </c>
       <c r="J246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.1453124999999997</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K246">
+        <f t="shared" si="9"/>
+        <v>1.7771851523819042</v>
+      </c>
+      <c r="L246" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -10956,11 +12943,19 @@
         <v>3.3</v>
       </c>
       <c r="J247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.1582031249999996</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K247">
+        <f t="shared" si="9"/>
+        <v>1.7777053618188896</v>
+      </c>
+      <c r="L247" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -10989,11 +12984,19 @@
         <v>0</v>
       </c>
       <c r="J248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.1710937499999998</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K248">
+        <f t="shared" si="9"/>
+        <v>1.7782255584857123</v>
+      </c>
+      <c r="L248" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -11022,11 +13025,19 @@
         <v>3.3</v>
       </c>
       <c r="J249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.1839843749999996</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K249">
+        <f t="shared" si="9"/>
+        <v>1.7787457423303539</v>
+      </c>
+      <c r="L249" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -11055,11 +13066,19 @@
         <v>0</v>
       </c>
       <c r="J250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.1968749999999995</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K250">
+        <f t="shared" si="9"/>
+        <v>1.7792659133007978</v>
+      </c>
+      <c r="L250" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -11088,11 +13107,19 @@
         <v>3.3</v>
       </c>
       <c r="J251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.2097656249999993</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K251">
+        <f t="shared" si="9"/>
+        <v>1.7797860713450282</v>
+      </c>
+      <c r="L251" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -11121,11 +13148,19 @@
         <v>0</v>
       </c>
       <c r="J252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.2226562499999996</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K252">
+        <f t="shared" si="9"/>
+        <v>1.780306216411031</v>
+      </c>
+      <c r="L252" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -11154,11 +13189,19 @@
         <v>3.3</v>
       </c>
       <c r="J253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.2355468749999994</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K253">
+        <f t="shared" si="9"/>
+        <v>1.780826348446793</v>
+      </c>
+      <c r="L253" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -11187,11 +13230,19 @@
         <v>0</v>
       </c>
       <c r="J254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.2484374999999996</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K254">
+        <f t="shared" si="9"/>
+        <v>1.7813464674003028</v>
+      </c>
+      <c r="L254" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -11220,11 +13271,19 @@
         <v>3.3</v>
       </c>
       <c r="J255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.2613281249999995</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K255">
+        <f t="shared" si="9"/>
+        <v>1.7818665732195498</v>
+      </c>
+      <c r="L255" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -11253,11 +13312,19 @@
         <v>0</v>
       </c>
       <c r="J256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.2742187499999997</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K256">
+        <f t="shared" si="9"/>
+        <v>1.7823866658525251</v>
+      </c>
+      <c r="L256" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -11286,8 +13353,16 @@
         <v>3.3</v>
       </c>
       <c r="J257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.2871093749999996</v>
+      </c>
+      <c r="K257">
+        <f t="shared" si="9"/>
+        <v>1.7829067452472209</v>
+      </c>
+      <c r="L257" t="str">
+        <f t="shared" si="11"/>
+        <v>No Match</v>
       </c>
     </row>
   </sheetData>
